--- a/Divisions/T1.xlsx
+++ b/Divisions/T1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12600" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12709" uniqueCount="364">
   <si>
     <t>Team</t>
   </si>
@@ -846,6 +847,270 @@
   <si>
     <t>2.4865</t>
   </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Alanyaspor,W L W D D L</t>
+  </si>
+  <si>
+    <t>Ankaragucu,W D D L L L</t>
+  </si>
+  <si>
+    <t>Antalyaspor,W L L L D L</t>
+  </si>
+  <si>
+    <t>Besiktas,W D D W W W</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,L L W D W W</t>
+  </si>
+  <si>
+    <t>Denizlispor,L L D D L L</t>
+  </si>
+  <si>
+    <t>Erzurum BB,L W W W L L</t>
+  </si>
+  <si>
+    <t>Fenerbahce,D W W W D W</t>
+  </si>
+  <si>
+    <t>Galatasaray,D W D W W W</t>
+  </si>
+  <si>
+    <t>Gaziantep,L D L L W L</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,L L D W L L</t>
+  </si>
+  <si>
+    <t>Goztep,W W L D D W</t>
+  </si>
+  <si>
+    <t>Hatayspor,L D W D W L</t>
+  </si>
+  <si>
+    <t>Karagumruk,W D D L D L</t>
+  </si>
+  <si>
+    <t>Kasimpasa,D D D L L W</t>
+  </si>
+  <si>
+    <t>Kayserispor,L D D L W D</t>
+  </si>
+  <si>
+    <t>Konyaspor,L D L D L W</t>
+  </si>
+  <si>
+    <t>Rizespor,D W W L L W</t>
+  </si>
+  <si>
+    <t>Sivasspor,W W D D W W</t>
+  </si>
+  <si>
+    <t>Trabzonspor,D D D D W D</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,D W L W L D</t>
+  </si>
+  <si>
+    <t>Alanyaspor,3 0 3 0 0 0</t>
+  </si>
+  <si>
+    <t>Ankaragucu,2 2 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Antalyaspor,1 2 2 0 2 2</t>
+  </si>
+  <si>
+    <t>Besiktas,4 2 0 3 3 7</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,0 1 1 0 2 2</t>
+  </si>
+  <si>
+    <t>Denizlispor,2 2 1 1 3 0</t>
+  </si>
+  <si>
+    <t>Erzurum BB,2 3 1 3 1 1</t>
+  </si>
+  <si>
+    <t>Fenerbahce,1 3 2 3 0 3</t>
+  </si>
+  <si>
+    <t>Galatasaray,1 3 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Gaziantep,1 2 2 2 1 0</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,1 2 2 2 1 0</t>
+  </si>
+  <si>
+    <t>Goztep,2 3 1 1 1 3</t>
+  </si>
+  <si>
+    <t>Hatayspor,2 1 3 0 3 0</t>
+  </si>
+  <si>
+    <t>Karagumruk,1 1 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Kasimpasa,1 0 2 0 2 3</t>
+  </si>
+  <si>
+    <t>Kayserispor,0 0 2 1 6 1</t>
+  </si>
+  <si>
+    <t>Konyaspor,1 0 3 0 0 5</t>
+  </si>
+  <si>
+    <t>Rizespor,0 3 5 1 2 1</t>
+  </si>
+  <si>
+    <t>Sivasspor,3 3 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Trabzonspor,1 0 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,0 1 0 2 0 1</t>
+  </si>
+  <si>
+    <t>Alanyaspor,2 1 2 0 0 3</t>
+  </si>
+  <si>
+    <t>Ankaragucu,1 2 1 2 1 2</t>
+  </si>
+  <si>
+    <t>Antalyaspor,0 3 3 1 2 3</t>
+  </si>
+  <si>
+    <t>Besiktas,2 2 0 1 2 0</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,2 2 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Denizlispor,3 3 1 1 6 1</t>
+  </si>
+  <si>
+    <t>Erzurum BB,4 2 0 2 2 3</t>
+  </si>
+  <si>
+    <t>Fenerbahce,1 1 1 2 0 1</t>
+  </si>
+  <si>
+    <t>Galatasaray,1 1 1 0 0 0</t>
+  </si>
+  <si>
+    <t>Gaziantep,3 2 3 3 0 1</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,2 3 2 1 3 2</t>
+  </si>
+  <si>
+    <t>Goztep,0 2 3 1 1 2</t>
+  </si>
+  <si>
+    <t>Hatayspor,3 1 2 0 1 7</t>
+  </si>
+  <si>
+    <t>Karagumruk,0 1 1 2 2 5</t>
+  </si>
+  <si>
+    <t>Kasimpasa,1 0 2 1 3 0</t>
+  </si>
+  <si>
+    <t>Kayserispor,1 0 2 3 3 1</t>
+  </si>
+  <si>
+    <t>Konyaspor,3 0 5 0 1 1</t>
+  </si>
+  <si>
+    <t>Rizespor,0 2 3 2 3 0</t>
+  </si>
+  <si>
+    <t>Sivasspor,1 2 0 1 0 0</t>
+  </si>
+  <si>
+    <t>Trabzonspor,1 0 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Alanyaspor,5 1 5 0 0 3</t>
+  </si>
+  <si>
+    <t>Ankaragucu,3 4 2 3 1 3</t>
+  </si>
+  <si>
+    <t>Antalyaspor,1 5 5 1 4 5</t>
+  </si>
+  <si>
+    <t>Besiktas,6 4 0 4 5 7</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,2 3 1 0 3 3</t>
+  </si>
+  <si>
+    <t>Denizlispor,5 5 2 2 9 1</t>
+  </si>
+  <si>
+    <t>Erzurum BB,6 5 1 5 3 4</t>
+  </si>
+  <si>
+    <t>Fenerbahce,2 4 3 5 0 4</t>
+  </si>
+  <si>
+    <t>Galatasaray,2 4 2 1 1 2</t>
+  </si>
+  <si>
+    <t>Gaziantep,4 4 5 5 1 1</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,3 5 4 3 4 2</t>
+  </si>
+  <si>
+    <t>Goztep,2 5 4 2 2 5</t>
+  </si>
+  <si>
+    <t>Hatayspor,5 2 5 0 4 7</t>
+  </si>
+  <si>
+    <t>Karagumruk,1 2 2 2 4 6</t>
+  </si>
+  <si>
+    <t>Kasimpasa,2 0 4 1 5 3</t>
+  </si>
+  <si>
+    <t>Kayserispor,1 0 4 4 9 2</t>
+  </si>
+  <si>
+    <t>Konyaspor,4 0 8 0 1 6</t>
+  </si>
+  <si>
+    <t>Rizespor,0 5 8 3 5 1</t>
+  </si>
+  <si>
+    <t>Sivasspor,4 5 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Trabzonspor,2 0 2 2 2 2</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,0 1 1 3 1 2</t>
+  </si>
 </sst>
 </file>
 
@@ -39033,4 +39298,389 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/T1.xlsx
+++ b/Divisions/T1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12989" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13077" uniqueCount="509">
   <si>
     <t>Team</t>
   </si>
@@ -114,30 +114,30 @@
     <t>Besiktas</t>
   </si>
   <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
     <t>Fenerbahce</t>
   </si>
   <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
     <t>Trabzonspor</t>
   </si>
   <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>Hatayspor</t>
   </si>
   <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
     <t>Alanyaspor</t>
   </si>
   <si>
+    <t>Karagumruk</t>
+  </si>
+  <si>
     <t>Gaziantep</t>
   </si>
   <si>
-    <t>Karagumruk</t>
-  </si>
-  <si>
     <t>Goztep</t>
   </si>
   <si>
@@ -147,6 +147,9 @@
     <t>Rizespor</t>
   </si>
   <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
     <t>Buyuksehyr</t>
   </si>
   <si>
@@ -156,697 +159,706 @@
     <t>Antalyaspor</t>
   </si>
   <si>
-    <t>Kasimpasa</t>
-  </si>
-  <si>
     <t>Kayserispor</t>
   </si>
   <si>
+    <t>Erzurum BB</t>
+  </si>
+  <si>
     <t>Ankaragucu</t>
   </si>
   <si>
-    <t>Erzurum BB</t>
-  </si>
-  <si>
     <t>Genclerbirligi</t>
   </si>
   <si>
     <t>Denizlispor</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>55</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>X2020.09.11</t>
+  </si>
+  <si>
+    <t>X2020.09.12</t>
+  </si>
+  <si>
+    <t>X2020.09.13</t>
+  </si>
+  <si>
+    <t>X2020.09.14</t>
+  </si>
+  <si>
+    <t>X2020.09.18</t>
+  </si>
+  <si>
+    <t>X2020.09.19</t>
+  </si>
+  <si>
+    <t>X2020.09.20</t>
+  </si>
+  <si>
+    <t>X2020.09.21</t>
+  </si>
+  <si>
+    <t>X2020.09.25</t>
+  </si>
+  <si>
+    <t>X2020.09.26</t>
+  </si>
+  <si>
+    <t>X2020.09.27</t>
+  </si>
+  <si>
+    <t>X2020.09.28</t>
+  </si>
+  <si>
+    <t>X2020.10.02</t>
+  </si>
+  <si>
+    <t>X2020.10.03</t>
+  </si>
+  <si>
+    <t>X2020.10.04</t>
+  </si>
+  <si>
+    <t>X2020.10.17</t>
+  </si>
+  <si>
+    <t>X2020.10.18</t>
+  </si>
+  <si>
+    <t>X2020.10.19</t>
+  </si>
+  <si>
+    <t>X2020.10.23</t>
+  </si>
+  <si>
+    <t>X2020.10.24</t>
+  </si>
+  <si>
+    <t>X2020.10.25</t>
+  </si>
+  <si>
+    <t>X2020.10.26</t>
+  </si>
+  <si>
+    <t>X2020.10.30</t>
+  </si>
+  <si>
+    <t>X2020.10.31</t>
+  </si>
+  <si>
+    <t>X2020.11.01</t>
+  </si>
+  <si>
+    <t>X2020.11.02</t>
+  </si>
+  <si>
+    <t>X2020.11.06</t>
+  </si>
+  <si>
+    <t>X2020.11.07</t>
+  </si>
+  <si>
+    <t>X2020.11.08</t>
+  </si>
+  <si>
+    <t>X2020.11.21</t>
+  </si>
+  <si>
+    <t>X2020.11.22</t>
+  </si>
+  <si>
+    <t>X2020.11.23</t>
+  </si>
+  <si>
+    <t>X2020.11.27</t>
+  </si>
+  <si>
+    <t>X2020.11.28</t>
+  </si>
+  <si>
+    <t>X2020.11.29</t>
+  </si>
+  <si>
+    <t>X2020.11.30</t>
+  </si>
+  <si>
+    <t>X2020.12.04</t>
+  </si>
+  <si>
+    <t>X2020.12.05</t>
+  </si>
+  <si>
+    <t>X2020.12.06</t>
+  </si>
+  <si>
+    <t>X2020.12.07</t>
+  </si>
+  <si>
+    <t>X2020.12.09</t>
+  </si>
+  <si>
+    <t>X2020.12.11</t>
+  </si>
+  <si>
+    <t>X2020.12.12</t>
+  </si>
+  <si>
+    <t>X2020.12.13</t>
+  </si>
+  <si>
+    <t>X2020.12.14</t>
+  </si>
+  <si>
+    <t>X2020.12.15</t>
+  </si>
+  <si>
+    <t>X2020.12.18</t>
+  </si>
+  <si>
+    <t>X2020.12.19</t>
+  </si>
+  <si>
+    <t>X2020.12.20</t>
+  </si>
+  <si>
+    <t>X2020.12.21</t>
+  </si>
+  <si>
+    <t>X2020.12.22</t>
+  </si>
+  <si>
+    <t>X2020.12.23</t>
+  </si>
+  <si>
+    <t>X2020.12.24</t>
+  </si>
+  <si>
+    <t>X2020.12.26</t>
+  </si>
+  <si>
+    <t>X2020.12.27</t>
+  </si>
+  <si>
+    <t>X2020.12.28</t>
+  </si>
+  <si>
+    <t>X2020.12.29</t>
+  </si>
+  <si>
+    <t>X2021.01.02</t>
+  </si>
+  <si>
+    <t>X2021.01.03</t>
+  </si>
+  <si>
+    <t>X2021.01.04</t>
+  </si>
+  <si>
+    <t>X2021.01.05</t>
+  </si>
+  <si>
+    <t>X2021.01.06</t>
+  </si>
+  <si>
+    <t>X2021.01.07</t>
+  </si>
+  <si>
+    <t>X2021.01.09</t>
+  </si>
+  <si>
+    <t>X2021.01.10</t>
+  </si>
+  <si>
+    <t>X2021.01.11</t>
+  </si>
+  <si>
+    <t>X2021.01.15</t>
+  </si>
+  <si>
+    <t>X2021.01.16</t>
+  </si>
+  <si>
+    <t>X2021.01.17</t>
+  </si>
+  <si>
+    <t>X2021.01.18</t>
+  </si>
+  <si>
+    <t>X2021.01.19</t>
+  </si>
+  <si>
+    <t>X2021.01.20</t>
+  </si>
+  <si>
+    <t>X2021.01.21</t>
+  </si>
+  <si>
+    <t>X2021.01.23</t>
+  </si>
+  <si>
+    <t>X2021.01.24</t>
+  </si>
+  <si>
+    <t>X2021.01.25</t>
+  </si>
+  <si>
+    <t>X2021.01.29</t>
+  </si>
+  <si>
+    <t>X2021.01.30</t>
+  </si>
+  <si>
+    <t>X2021.01.31</t>
+  </si>
+  <si>
+    <t>X2021.02.02</t>
+  </si>
+  <si>
+    <t>X2021.02.03</t>
+  </si>
+  <si>
+    <t>X2021.02.04</t>
+  </si>
+  <si>
+    <t>X2021.02.06</t>
+  </si>
+  <si>
+    <t>X2021.02.07</t>
+  </si>
+  <si>
+    <t>X2021.02.08</t>
+  </si>
+  <si>
+    <t>X2021.02.12</t>
+  </si>
+  <si>
+    <t>X2021.02.13</t>
+  </si>
+  <si>
+    <t>X2021.02.14</t>
+  </si>
+  <si>
+    <t>X2021.02.15</t>
+  </si>
+  <si>
+    <t>X2021.02.19</t>
+  </si>
+  <si>
+    <t>X2021.02.20</t>
+  </si>
+  <si>
+    <t>X2021.02.21</t>
+  </si>
+  <si>
+    <t>X2021.02.22</t>
+  </si>
+  <si>
+    <t>X2021.02.26</t>
+  </si>
+  <si>
+    <t>X2021.02.27</t>
+  </si>
+  <si>
+    <t>X2021.02.28</t>
+  </si>
+  <si>
+    <t>X2021.03.02</t>
+  </si>
+  <si>
+    <t>X2021.03.03</t>
+  </si>
+  <si>
+    <t>X2021.03.04</t>
+  </si>
+  <si>
+    <t>X2021.03.06</t>
+  </si>
+  <si>
+    <t>X2021.03.07</t>
+  </si>
+  <si>
+    <t>X2021.03.08</t>
+  </si>
+  <si>
+    <t>X2021.03.12</t>
+  </si>
+  <si>
+    <t>X2021.03.13</t>
+  </si>
+  <si>
+    <t>X2021.03.14</t>
+  </si>
+  <si>
+    <t>X2021.03.15</t>
+  </si>
+  <si>
+    <t>X2021.03.19</t>
+  </si>
+  <si>
+    <t>X2021.03.20</t>
+  </si>
+  <si>
+    <t>X2021.03.21</t>
+  </si>
+  <si>
+    <t>X2021.04.03</t>
+  </si>
+  <si>
+    <t>X2021.04.04</t>
+  </si>
+  <si>
+    <t>X2021.04.05</t>
+  </si>
+  <si>
+    <t>X2021.04.06</t>
+  </si>
+  <si>
+    <t>X2021.04.07</t>
+  </si>
+  <si>
+    <t>X2021.04.08</t>
+  </si>
+  <si>
+    <t>X2021.04.10</t>
+  </si>
+  <si>
+    <t>X2021.04.11</t>
+  </si>
+  <si>
+    <t>X2021.04.12</t>
+  </si>
+  <si>
+    <t>X2021.04.16</t>
+  </si>
+  <si>
+    <t>X2021.04.17</t>
+  </si>
+  <si>
+    <t>X2021.04.18</t>
+  </si>
+  <si>
+    <t>X2021.04.20</t>
+  </si>
+  <si>
+    <t>X2021.04.21</t>
+  </si>
+  <si>
+    <t>X2021.04.22</t>
+  </si>
+  <si>
+    <t>X2021.04.23</t>
+  </si>
+  <si>
+    <t>X2021.04.24</t>
+  </si>
+  <si>
+    <t>X2021.04.25</t>
+  </si>
+  <si>
+    <t>X2021.04.27</t>
+  </si>
+  <si>
+    <t>X2021.04.28</t>
+  </si>
+  <si>
+    <t>X2021.04.29</t>
+  </si>
+  <si>
+    <t>X2021.05.01</t>
+  </si>
+  <si>
+    <t>X2021.05.02</t>
+  </si>
+  <si>
+    <t>X2021.05.03</t>
+  </si>
+  <si>
+    <t>X2021.05.08</t>
+  </si>
+  <si>
+    <t>X2021.05.11</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Erzurum.BB</t>
+  </si>
+  <si>
+    <t>Yeni.Malatyaspor</t>
+  </si>
+  <si>
+    <t>t1_hgtotals</t>
+  </si>
+  <si>
+    <t>t1_agtotals</t>
+  </si>
+  <si>
+    <t>t1_totalgoals</t>
+  </si>
+  <si>
+    <t>t1_games_played</t>
+  </si>
+  <si>
+    <t>t1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>68</t>
+    <t>56</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>-15</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>-33</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>X2020.09.11</t>
-  </si>
-  <si>
-    <t>X2020.09.12</t>
-  </si>
-  <si>
-    <t>X2020.09.13</t>
-  </si>
-  <si>
-    <t>X2020.09.14</t>
-  </si>
-  <si>
-    <t>X2020.09.18</t>
-  </si>
-  <si>
-    <t>X2020.09.19</t>
-  </si>
-  <si>
-    <t>X2020.09.20</t>
-  </si>
-  <si>
-    <t>X2020.09.21</t>
-  </si>
-  <si>
-    <t>X2020.09.25</t>
-  </si>
-  <si>
-    <t>X2020.09.26</t>
-  </si>
-  <si>
-    <t>X2020.09.27</t>
-  </si>
-  <si>
-    <t>X2020.09.28</t>
-  </si>
-  <si>
-    <t>X2020.10.02</t>
-  </si>
-  <si>
-    <t>X2020.10.03</t>
-  </si>
-  <si>
-    <t>X2020.10.04</t>
-  </si>
-  <si>
-    <t>X2020.10.17</t>
-  </si>
-  <si>
-    <t>X2020.10.18</t>
-  </si>
-  <si>
-    <t>X2020.10.19</t>
-  </si>
-  <si>
-    <t>X2020.10.23</t>
-  </si>
-  <si>
-    <t>X2020.10.24</t>
-  </si>
-  <si>
-    <t>X2020.10.25</t>
-  </si>
-  <si>
-    <t>X2020.10.26</t>
-  </si>
-  <si>
-    <t>X2020.10.30</t>
-  </si>
-  <si>
-    <t>X2020.10.31</t>
-  </si>
-  <si>
-    <t>X2020.11.01</t>
-  </si>
-  <si>
-    <t>X2020.11.02</t>
-  </si>
-  <si>
-    <t>X2020.11.06</t>
-  </si>
-  <si>
-    <t>X2020.11.07</t>
-  </si>
-  <si>
-    <t>X2020.11.08</t>
-  </si>
-  <si>
-    <t>X2020.11.21</t>
-  </si>
-  <si>
-    <t>X2020.11.22</t>
-  </si>
-  <si>
-    <t>X2020.11.23</t>
-  </si>
-  <si>
-    <t>X2020.11.27</t>
-  </si>
-  <si>
-    <t>X2020.11.28</t>
-  </si>
-  <si>
-    <t>X2020.11.29</t>
-  </si>
-  <si>
-    <t>X2020.11.30</t>
-  </si>
-  <si>
-    <t>X2020.12.04</t>
-  </si>
-  <si>
-    <t>X2020.12.05</t>
-  </si>
-  <si>
-    <t>X2020.12.06</t>
-  </si>
-  <si>
-    <t>X2020.12.07</t>
-  </si>
-  <si>
-    <t>X2020.12.09</t>
-  </si>
-  <si>
-    <t>X2020.12.11</t>
-  </si>
-  <si>
-    <t>X2020.12.12</t>
-  </si>
-  <si>
-    <t>X2020.12.13</t>
-  </si>
-  <si>
-    <t>X2020.12.14</t>
-  </si>
-  <si>
-    <t>X2020.12.15</t>
-  </si>
-  <si>
-    <t>X2020.12.18</t>
-  </si>
-  <si>
-    <t>X2020.12.19</t>
-  </si>
-  <si>
-    <t>X2020.12.20</t>
-  </si>
-  <si>
-    <t>X2020.12.21</t>
-  </si>
-  <si>
-    <t>X2020.12.22</t>
-  </si>
-  <si>
-    <t>X2020.12.23</t>
-  </si>
-  <si>
-    <t>X2020.12.24</t>
-  </si>
-  <si>
-    <t>X2020.12.26</t>
-  </si>
-  <si>
-    <t>X2020.12.27</t>
-  </si>
-  <si>
-    <t>X2020.12.28</t>
-  </si>
-  <si>
-    <t>X2020.12.29</t>
-  </si>
-  <si>
-    <t>X2021.01.02</t>
-  </si>
-  <si>
-    <t>X2021.01.03</t>
-  </si>
-  <si>
-    <t>X2021.01.04</t>
-  </si>
-  <si>
-    <t>X2021.01.05</t>
-  </si>
-  <si>
-    <t>X2021.01.06</t>
-  </si>
-  <si>
-    <t>X2021.01.07</t>
-  </si>
-  <si>
-    <t>X2021.01.09</t>
-  </si>
-  <si>
-    <t>X2021.01.10</t>
-  </si>
-  <si>
-    <t>X2021.01.11</t>
-  </si>
-  <si>
-    <t>X2021.01.15</t>
-  </si>
-  <si>
-    <t>X2021.01.16</t>
-  </si>
-  <si>
-    <t>X2021.01.17</t>
-  </si>
-  <si>
-    <t>X2021.01.18</t>
-  </si>
-  <si>
-    <t>X2021.01.19</t>
-  </si>
-  <si>
-    <t>X2021.01.20</t>
-  </si>
-  <si>
-    <t>X2021.01.21</t>
-  </si>
-  <si>
-    <t>X2021.01.23</t>
-  </si>
-  <si>
-    <t>X2021.01.24</t>
-  </si>
-  <si>
-    <t>X2021.01.25</t>
-  </si>
-  <si>
-    <t>X2021.01.29</t>
-  </si>
-  <si>
-    <t>X2021.01.30</t>
-  </si>
-  <si>
-    <t>X2021.01.31</t>
-  </si>
-  <si>
-    <t>X2021.02.02</t>
-  </si>
-  <si>
-    <t>X2021.02.03</t>
-  </si>
-  <si>
-    <t>X2021.02.04</t>
-  </si>
-  <si>
-    <t>X2021.02.06</t>
-  </si>
-  <si>
-    <t>X2021.02.07</t>
-  </si>
-  <si>
-    <t>X2021.02.08</t>
-  </si>
-  <si>
-    <t>X2021.02.12</t>
-  </si>
-  <si>
-    <t>X2021.02.13</t>
-  </si>
-  <si>
-    <t>X2021.02.14</t>
-  </si>
-  <si>
-    <t>X2021.02.15</t>
-  </si>
-  <si>
-    <t>X2021.02.19</t>
-  </si>
-  <si>
-    <t>X2021.02.20</t>
-  </si>
-  <si>
-    <t>X2021.02.21</t>
-  </si>
-  <si>
-    <t>X2021.02.22</t>
-  </si>
-  <si>
-    <t>X2021.02.26</t>
-  </si>
-  <si>
-    <t>X2021.02.27</t>
-  </si>
-  <si>
-    <t>X2021.02.28</t>
-  </si>
-  <si>
-    <t>X2021.03.02</t>
-  </si>
-  <si>
-    <t>X2021.03.03</t>
-  </si>
-  <si>
-    <t>X2021.03.04</t>
-  </si>
-  <si>
-    <t>X2021.03.06</t>
-  </si>
-  <si>
-    <t>X2021.03.07</t>
-  </si>
-  <si>
-    <t>X2021.03.08</t>
-  </si>
-  <si>
-    <t>X2021.03.12</t>
-  </si>
-  <si>
-    <t>X2021.03.13</t>
-  </si>
-  <si>
-    <t>X2021.03.14</t>
-  </si>
-  <si>
-    <t>X2021.03.15</t>
-  </si>
-  <si>
-    <t>X2021.03.19</t>
-  </si>
-  <si>
-    <t>X2021.03.20</t>
-  </si>
-  <si>
-    <t>X2021.03.21</t>
-  </si>
-  <si>
-    <t>X2021.04.03</t>
-  </si>
-  <si>
-    <t>X2021.04.04</t>
-  </si>
-  <si>
-    <t>X2021.04.05</t>
-  </si>
-  <si>
-    <t>X2021.04.06</t>
-  </si>
-  <si>
-    <t>X2021.04.07</t>
-  </si>
-  <si>
-    <t>X2021.04.08</t>
-  </si>
-  <si>
-    <t>X2021.04.10</t>
-  </si>
-  <si>
-    <t>X2021.04.11</t>
-  </si>
-  <si>
-    <t>X2021.04.12</t>
-  </si>
-  <si>
-    <t>X2021.04.16</t>
-  </si>
-  <si>
-    <t>X2021.04.17</t>
-  </si>
-  <si>
-    <t>X2021.04.18</t>
-  </si>
-  <si>
-    <t>X2021.04.20</t>
-  </si>
-  <si>
-    <t>X2021.04.21</t>
-  </si>
-  <si>
-    <t>X2021.04.22</t>
-  </si>
-  <si>
-    <t>X2021.04.23</t>
-  </si>
-  <si>
-    <t>X2021.04.24</t>
-  </si>
-  <si>
-    <t>X2021.04.25</t>
-  </si>
-  <si>
-    <t>X2021.04.27</t>
-  </si>
-  <si>
-    <t>X2021.04.28</t>
-  </si>
-  <si>
-    <t>X2021.04.29</t>
-  </si>
-  <si>
-    <t>X2021.05.01</t>
-  </si>
-  <si>
-    <t>X2021.05.02</t>
-  </si>
-  <si>
-    <t>X2021.05.03</t>
-  </si>
-  <si>
-    <t>X2021.05.08</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Erzurum.BB</t>
-  </si>
-  <si>
-    <t>Yeni.Malatyaspor</t>
-  </si>
-  <si>
-    <t>t1_hgtotals</t>
-  </si>
-  <si>
-    <t>t1_agtotals</t>
-  </si>
-  <si>
-    <t>t1_totalgoals</t>
-  </si>
-  <si>
-    <t>t1_games_played</t>
-  </si>
-  <si>
-    <t>t1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>97</t>
   </si>
   <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>2.5526</t>
-  </si>
-  <si>
-    <t>2.7895</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>2.6154</t>
+  </si>
+  <si>
+    <t>2.8205</t>
   </si>
   <si>
     <t>2.4615</t>
   </si>
   <si>
-    <t>3.3421</t>
-  </si>
-  <si>
-    <t>2.5263</t>
-  </si>
-  <si>
-    <t>2.7368</t>
-  </si>
-  <si>
-    <t>2.7436</t>
-  </si>
-  <si>
-    <t>2.8158</t>
-  </si>
-  <si>
-    <t>2.6316</t>
-  </si>
-  <si>
-    <t>2.8684</t>
-  </si>
-  <si>
-    <t>2.9474</t>
-  </si>
-  <si>
-    <t>2.2105</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.9211</t>
-  </si>
-  <si>
-    <t>2.3947</t>
-  </si>
-  <si>
-    <t>2.1579</t>
+    <t>3.3333</t>
+  </si>
+  <si>
+    <t>2.7949</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.8718</t>
+  </si>
+  <si>
+    <t>2.9487</t>
+  </si>
+  <si>
+    <t>2.9231</t>
+  </si>
+  <si>
+    <t>2.5897</t>
+  </si>
+  <si>
+    <t>2.1538</t>
+  </si>
+  <si>
+    <t>2.4872</t>
+  </si>
+  <si>
+    <t>3.0769</t>
+  </si>
+  <si>
+    <t>2.4103</t>
+  </si>
+  <si>
+    <t>2.5128</t>
   </si>
   <si>
     <t>Group.1</t>
@@ -918,358 +930,358 @@
     <t>TSCC</t>
   </si>
   <si>
+    <t>29.79%</t>
+  </si>
+  <si>
+    <t>30.23%</t>
+  </si>
+  <si>
+    <t>34.78%</t>
+  </si>
+  <si>
+    <t>41.18%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>22.37%</t>
+  </si>
+  <si>
+    <t>26.09%</t>
+  </si>
+  <si>
+    <t>28.33%</t>
+  </si>
+  <si>
+    <t>33.60%</t>
+  </si>
+  <si>
+    <t>39.36%</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>44.74%</t>
+  </si>
+  <si>
+    <t>36.08%</t>
+  </si>
+  <si>
+    <t>45.12%</t>
+  </si>
+  <si>
+    <t>26.26%</t>
+  </si>
+  <si>
+    <t>22.62%</t>
+  </si>
+  <si>
+    <t>27.55%</t>
+  </si>
+  <si>
+    <t>30.34%</t>
+  </si>
+  <si>
+    <t>21.79%</t>
+  </si>
+  <si>
+    <t>38.24%</t>
+  </si>
+  <si>
+    <t>15.62%</t>
+  </si>
+  <si>
+    <t>27.78%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>42.22%</t>
+  </si>
+  <si>
+    <t>22.06%</t>
+  </si>
+  <si>
+    <t>27.03%</t>
+  </si>
+  <si>
+    <t>27.08%</t>
+  </si>
+  <si>
+    <t>35.64%</t>
+  </si>
+  <si>
+    <t>34.31%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>43.64%</t>
+  </si>
+  <si>
+    <t>35.53%</t>
+  </si>
+  <si>
+    <t>25.58%</t>
+  </si>
+  <si>
+    <t>25.32%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>30.14%</t>
+  </si>
+  <si>
+    <t>40.62%</t>
+  </si>
+  <si>
+    <t>43.75%</t>
+  </si>
+  <si>
+    <t>24.10%</t>
+  </si>
+  <si>
+    <t>30.56%</t>
+  </si>
+  <si>
+    <t>24.05%</t>
+  </si>
+  <si>
+    <t>29.11%</t>
+  </si>
+  <si>
+    <t>29.93%</t>
+  </si>
+  <si>
+    <t>41.63%</t>
+  </si>
+  <si>
+    <t>25.79%</t>
+  </si>
+  <si>
+    <t>24.67%</t>
+  </si>
+  <si>
+    <t>26.67%</t>
+  </si>
+  <si>
+    <t>31.67%</t>
+  </si>
+  <si>
+    <t>33.92%</t>
+  </si>
+  <si>
+    <t>36.94%</t>
+  </si>
+  <si>
+    <t>31.62%</t>
+  </si>
+  <si>
+    <t>44.27%</t>
+  </si>
+  <si>
+    <t>35.84%</t>
+  </si>
+  <si>
+    <t>35.12%</t>
+  </si>
+  <si>
+    <t>25.84%</t>
+  </si>
+  <si>
+    <t>24.46%</t>
+  </si>
+  <si>
+    <t>28.65%</t>
+  </si>
+  <si>
+    <t>34.64%</t>
+  </si>
+  <si>
+    <t>32.91%</t>
+  </si>
+  <si>
+    <t>26.52%</t>
+  </si>
+  <si>
+    <t>34.29%</t>
+  </si>
+  <si>
+    <t>35.59%</t>
+  </si>
+  <si>
+    <t>35.29%</t>
+  </si>
+  <si>
+    <t>32.94%</t>
+  </si>
+  <si>
+    <t>22.95%</t>
+  </si>
+  <si>
+    <t>37.33%</t>
+  </si>
+  <si>
+    <t>33.75%</t>
+  </si>
+  <si>
+    <t>34.88%</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>24.24%</t>
+  </si>
+  <si>
+    <t>27.59%</t>
+  </si>
+  <si>
+    <t>31.82%</t>
+  </si>
+  <si>
+    <t>30.86%</t>
+  </si>
+  <si>
+    <t>26.83%</t>
+  </si>
+  <si>
+    <t>26.39%</t>
+  </si>
+  <si>
+    <t>27.14%</t>
+  </si>
+  <si>
+    <t>26.42%</t>
+  </si>
+  <si>
+    <t>24.14%</t>
+  </si>
+  <si>
+    <t>27.06%</t>
+  </si>
+  <si>
+    <t>33.80%</t>
+  </si>
+  <si>
+    <t>38.10%</t>
+  </si>
+  <si>
+    <t>31.40%</t>
+  </si>
+  <si>
+    <t>45.31%</t>
+  </si>
+  <si>
+    <t>35.06%</t>
+  </si>
+  <si>
+    <t>39.13%</t>
+  </si>
+  <si>
+    <t>35.85%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>30.68%</t>
+  </si>
+  <si>
+    <t>33.62%</t>
+  </si>
+  <si>
+    <t>29.91%</t>
+  </si>
+  <si>
+    <t>30.93%</t>
+  </si>
+  <si>
+    <t>32.65%</t>
+  </si>
+  <si>
+    <t>32.26%</t>
+  </si>
+  <si>
+    <t>23.28%</t>
+  </si>
+  <si>
+    <t>36.25%</t>
+  </si>
+  <si>
+    <t>34.51%</t>
+  </si>
+  <si>
+    <t>18.57%</t>
+  </si>
+  <si>
+    <t>34.62%</t>
+  </si>
+  <si>
+    <t>36.99%</t>
+  </si>
+  <si>
+    <t>32.16%</t>
+  </si>
+  <si>
+    <t>34.40%</t>
+  </si>
+  <si>
+    <t>36.18%</t>
+  </si>
+  <si>
+    <t>36.92%</t>
+  </si>
+  <si>
+    <t>35.42%</t>
+  </si>
+  <si>
     <t>29.63%</t>
   </si>
   <si>
-    <t>30.23%</t>
-  </si>
-  <si>
-    <t>34.78%</t>
-  </si>
-  <si>
-    <t>42.11%</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>21.92%</t>
-  </si>
-  <si>
-    <t>26.09%</t>
-  </si>
-  <si>
-    <t>29.20%</t>
-  </si>
-  <si>
-    <t>33.60%</t>
-  </si>
-  <si>
-    <t>37.93%</t>
-  </si>
-  <si>
-    <t>34.38%</t>
-  </si>
-  <si>
-    <t>44.74%</t>
-  </si>
-  <si>
-    <t>36.08%</t>
-  </si>
-  <si>
-    <t>45.12%</t>
-  </si>
-  <si>
-    <t>24.47%</t>
-  </si>
-  <si>
-    <t>22.62%</t>
-  </si>
-  <si>
-    <t>28.26%</t>
-  </si>
-  <si>
-    <t>30.34%</t>
-  </si>
-  <si>
-    <t>21.79%</t>
-  </si>
-  <si>
-    <t>39.06%</t>
-  </si>
-  <si>
-    <t>15.62%</t>
-  </si>
-  <si>
-    <t>29.23%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>42.22%</t>
-  </si>
-  <si>
-    <t>22.06%</t>
-  </si>
-  <si>
-    <t>27.03%</t>
-  </si>
-  <si>
-    <t>25.56%</t>
-  </si>
-  <si>
-    <t>35.64%</t>
-  </si>
-  <si>
-    <t>33.70%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>40.38%</t>
-  </si>
-  <si>
-    <t>35.14%</t>
-  </si>
-  <si>
-    <t>24.69%</t>
-  </si>
-  <si>
-    <t>25.32%</t>
-  </si>
-  <si>
-    <t>28.30%</t>
-  </si>
-  <si>
-    <t>30.14%</t>
-  </si>
-  <si>
-    <t>36.21%</t>
-  </si>
-  <si>
-    <t>42.86%</t>
-  </si>
-  <si>
-    <t>24.36%</t>
-  </si>
-  <si>
-    <t>30.56%</t>
-  </si>
-  <si>
-    <t>23.81%</t>
-  </si>
-  <si>
-    <t>29.80%</t>
-  </si>
-  <si>
-    <t>29.93%</t>
-  </si>
-  <si>
-    <t>42.16%</t>
-  </si>
-  <si>
-    <t>25.79%</t>
-  </si>
-  <si>
-    <t>24.49%</t>
-  </si>
-  <si>
-    <t>32.24%</t>
-  </si>
-  <si>
-    <t>33.64%</t>
-  </si>
-  <si>
-    <t>36.00%</t>
-  </si>
-  <si>
-    <t>29.69%</t>
-  </si>
-  <si>
-    <t>42.97%</t>
-  </si>
-  <si>
-    <t>35.67%</t>
-  </si>
-  <si>
-    <t>34.97%</t>
-  </si>
-  <si>
-    <t>24.86%</t>
-  </si>
-  <si>
-    <t>24.82%</t>
-  </si>
-  <si>
-    <t>29.09%</t>
-  </si>
-  <si>
-    <t>32.65%</t>
-  </si>
-  <si>
-    <t>32.26%</t>
-  </si>
-  <si>
-    <t>26.70%</t>
-  </si>
-  <si>
-    <t>34.56%</t>
-  </si>
-  <si>
-    <t>33.96%</t>
-  </si>
-  <si>
-    <t>35.29%</t>
-  </si>
-  <si>
-    <t>32.94%</t>
-  </si>
-  <si>
-    <t>21.43%</t>
-  </si>
-  <si>
-    <t>38.36%</t>
-  </si>
-  <si>
-    <t>32.86%</t>
-  </si>
-  <si>
-    <t>34.88%</t>
-  </si>
-  <si>
-    <t>40.35%</t>
-  </si>
-  <si>
-    <t>24.24%</t>
-  </si>
-  <si>
-    <t>23.46%</t>
-  </si>
-  <si>
-    <t>29.91%</t>
-  </si>
-  <si>
-    <t>30.86%</t>
-  </si>
-  <si>
-    <t>26.83%</t>
-  </si>
-  <si>
-    <t>26.39%</t>
-  </si>
-  <si>
-    <t>32.43%</t>
-  </si>
-  <si>
-    <t>29.11%</t>
-  </si>
-  <si>
-    <t>27.69%</t>
-  </si>
-  <si>
-    <t>26.42%</t>
-  </si>
-  <si>
-    <t>24.14%</t>
-  </si>
-  <si>
-    <t>27.06%</t>
-  </si>
-  <si>
-    <t>32.81%</t>
-  </si>
-  <si>
-    <t>33.80%</t>
-  </si>
-  <si>
-    <t>37.00%</t>
-  </si>
-  <si>
-    <t>31.40%</t>
-  </si>
-  <si>
-    <t>45.31%</t>
-  </si>
-  <si>
-    <t>35.06%</t>
-  </si>
-  <si>
-    <t>39.13%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>30.68%</t>
-  </si>
-  <si>
-    <t>33.62%</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>31.18%</t>
-  </si>
-  <si>
-    <t>23.28%</t>
-  </si>
-  <si>
-    <t>36.25%</t>
-  </si>
-  <si>
-    <t>33.02%</t>
-  </si>
-  <si>
-    <t>18.75%</t>
-  </si>
-  <si>
-    <t>29.79%</t>
-  </si>
-  <si>
-    <t>33.87%</t>
-  </si>
-  <si>
-    <t>36.31%</t>
-  </si>
-  <si>
-    <t>32.16%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>36.67%</t>
-  </si>
-  <si>
-    <t>36.76%</t>
-  </si>
-  <si>
-    <t>35.48%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>25.19%</t>
-  </si>
-  <si>
-    <t>27.22%</t>
-  </si>
-  <si>
-    <t>31.84%</t>
-  </si>
-  <si>
-    <t>28.89%</t>
+    <t>25.36%</t>
   </si>
   <si>
     <t>29.14%</t>
   </si>
   <si>
-    <t>30.30%</t>
-  </si>
-  <si>
-    <t>32.34%</t>
+    <t>32.74%</t>
+  </si>
+  <si>
+    <t>30.32%</t>
+  </si>
+  <si>
+    <t>29.05%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>31.61%</t>
   </si>
   <si>
     <t>25.64%</t>
   </si>
   <si>
-    <t>32.41%</t>
-  </si>
-  <si>
-    <t>29.72%</t>
-  </si>
-  <si>
-    <t>29.50%</t>
-  </si>
-  <si>
-    <t>23.49%</t>
-  </si>
-  <si>
-    <t>31.01%</t>
+    <t>32.00%</t>
+  </si>
+  <si>
+    <t>30.59%</t>
+  </si>
+  <si>
+    <t>28.77%</t>
+  </si>
+  <si>
+    <t>23.23%</t>
+  </si>
+  <si>
+    <t>31.25%</t>
   </si>
   <si>
     <t>Form</t>
@@ -1284,256 +1296,256 @@
     <t>Total Goals</t>
   </si>
   <si>
-    <t>Alanyaspor,W L W D D L</t>
-  </si>
-  <si>
-    <t>Ankaragucu,D D L L L L</t>
+    <t>Alanyaspor,L W D D L L</t>
+  </si>
+  <si>
+    <t>Ankaragucu,D L L L L L</t>
   </si>
   <si>
     <t>Antalyaspor,L L L D L L</t>
   </si>
   <si>
-    <t>Besiktas,D D W W W L</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,L W D W W D</t>
-  </si>
-  <si>
-    <t>Denizlispor,L D D L L L</t>
-  </si>
-  <si>
-    <t>Erzurum BB,W W W L L L</t>
-  </si>
-  <si>
-    <t>Fenerbahce,W W W D W W</t>
-  </si>
-  <si>
-    <t>Galatasaray,W D W W W W</t>
-  </si>
-  <si>
-    <t>Gaziantep,D L L W L D</t>
-  </si>
-  <si>
-    <t>Genclerbirligi,L D W L L L</t>
-  </si>
-  <si>
-    <t>Goztep,W L D D W L</t>
-  </si>
-  <si>
-    <t>Hatayspor,D W D W L W</t>
-  </si>
-  <si>
-    <t>Karagumruk,D D L D L W</t>
-  </si>
-  <si>
-    <t>Kasimpasa,D D L L W W</t>
-  </si>
-  <si>
-    <t>Kayserispor,D D L W D D</t>
-  </si>
-  <si>
-    <t>Konyaspor,D L D L W W</t>
-  </si>
-  <si>
-    <t>Rizespor,W W L L W L</t>
-  </si>
-  <si>
-    <t>Sivasspor,W D D W W D</t>
-  </si>
-  <si>
-    <t>Trabzonspor,D D D W D W</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,W L W L D W</t>
-  </si>
-  <si>
-    <t>Alanyaspor,3 0 3 0 0 0</t>
-  </si>
-  <si>
-    <t>Ankaragucu,2 1 1 0 1 1</t>
+    <t>Besiktas,D W W W L L</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,W D W W D D</t>
+  </si>
+  <si>
+    <t>Denizlispor,D D L L L L</t>
+  </si>
+  <si>
+    <t>Erzurum BB,W W L L L W</t>
+  </si>
+  <si>
+    <t>Fenerbahce,W W D W W L</t>
+  </si>
+  <si>
+    <t>Galatasaray,D W W W W W</t>
+  </si>
+  <si>
+    <t>Gaziantep,L L W L D L</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,D W L L L W</t>
+  </si>
+  <si>
+    <t>Goztep,L D D W L L</t>
+  </si>
+  <si>
+    <t>Hatayspor,W D W L W D</t>
+  </si>
+  <si>
+    <t>Karagumruk,D L D L W W</t>
+  </si>
+  <si>
+    <t>Kasimpasa,D L L W W W</t>
+  </si>
+  <si>
+    <t>Kayserispor,D L W D D D</t>
+  </si>
+  <si>
+    <t>Konyaspor,L D L W W D</t>
+  </si>
+  <si>
+    <t>Rizespor,W L L W L W</t>
+  </si>
+  <si>
+    <t>Sivasspor,D D W W D W</t>
+  </si>
+  <si>
+    <t>Trabzonspor,D D W D W D</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,L W L D W D</t>
+  </si>
+  <si>
+    <t>Alanyaspor,0 3 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Ankaragucu,1 1 0 1 1 1</t>
   </si>
   <si>
     <t>Antalyaspor,2 2 0 2 2 1</t>
   </si>
   <si>
-    <t>Besiktas,2 0 3 3 7 1</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,1 1 0 2 2 0</t>
-  </si>
-  <si>
-    <t>Denizlispor,2 1 1 3 0 0</t>
-  </si>
-  <si>
-    <t>Erzurum BB,3 1 3 1 1 0</t>
-  </si>
-  <si>
-    <t>Fenerbahce,3 2 3 0 3 2</t>
-  </si>
-  <si>
-    <t>Galatasaray,3 1 1 1 2 3</t>
-  </si>
-  <si>
-    <t>Gaziantep,2 2 2 1 0 0</t>
-  </si>
-  <si>
-    <t>Genclerbirligi,2 2 2 1 0 1</t>
-  </si>
-  <si>
-    <t>Goztep,3 1 1 1 3 0</t>
-  </si>
-  <si>
-    <t>Hatayspor,1 3 0 3 0 1</t>
-  </si>
-  <si>
-    <t>Karagumruk,1 1 0 2 1 5</t>
-  </si>
-  <si>
-    <t>Kasimpasa,0 2 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Kayserispor,0 2 1 6 1 0</t>
-  </si>
-  <si>
-    <t>Konyaspor,0 3 0 0 5 1</t>
-  </si>
-  <si>
-    <t>Rizespor,3 5 1 2 1 0</t>
-  </si>
-  <si>
-    <t>Sivasspor,3 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Trabzonspor,0 1 1 2 1 2</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,1 0 2 0 1 4</t>
-  </si>
-  <si>
-    <t>Alanyaspor,2 1 2 0 0 3</t>
-  </si>
-  <si>
-    <t>Ankaragucu,2 1 2 1 2 2</t>
+    <t>Besiktas,0 3 3 7 1 1</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,1 0 2 2 0 0</t>
+  </si>
+  <si>
+    <t>Denizlispor,1 1 3 0 0 1</t>
+  </si>
+  <si>
+    <t>Erzurum BB,1 3 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Fenerbahce,2 3 0 3 2 1</t>
+  </si>
+  <si>
+    <t>Galatasaray,1 1 1 2 3 4</t>
+  </si>
+  <si>
+    <t>Gaziantep,2 2 1 0 0 4</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,2 2 1 0 1 5</t>
+  </si>
+  <si>
+    <t>Goztep,1 1 1 3 0 3</t>
+  </si>
+  <si>
+    <t>Hatayspor,3 0 3 0 1 1</t>
+  </si>
+  <si>
+    <t>Karagumruk,1 0 2 1 5 2</t>
+  </si>
+  <si>
+    <t>Kasimpasa,2 0 2 3 1 3</t>
+  </si>
+  <si>
+    <t>Kayserispor,2 1 6 1 0 0</t>
+  </si>
+  <si>
+    <t>Konyaspor,3 0 0 5 1 1</t>
+  </si>
+  <si>
+    <t>Rizespor,5 1 2 1 0 5</t>
+  </si>
+  <si>
+    <t>Sivasspor,0 1 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Trabzonspor,1 1 2 1 2 1</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,0 2 0 1 4 1</t>
+  </si>
+  <si>
+    <t>Alanyaspor,1 2 0 0 3 3</t>
+  </si>
+  <si>
+    <t>Ankaragucu,1 2 1 2 2 3</t>
   </si>
   <si>
     <t>Antalyaspor,3 3 1 2 3 2</t>
   </si>
   <si>
-    <t>Besiktas,2 0 1 2 0 3</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,2 0 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Denizlispor,3 1 1 6 1 1</t>
-  </si>
-  <si>
-    <t>Erzurum BB,2 0 2 2 3 1</t>
-  </si>
-  <si>
-    <t>Fenerbahce,1 1 2 0 1 1</t>
-  </si>
-  <si>
-    <t>Galatasaray,1 1 0 0 0 1</t>
-  </si>
-  <si>
-    <t>Gaziantep,2 3 3 0 1 0</t>
-  </si>
-  <si>
-    <t>Genclerbirligi,3 2 1 3 2 5</t>
-  </si>
-  <si>
-    <t>Goztep,2 3 1 1 2 1</t>
-  </si>
-  <si>
-    <t>Hatayspor,1 2 0 1 7 0</t>
-  </si>
-  <si>
-    <t>Karagumruk,1 1 2 2 5 1</t>
-  </si>
-  <si>
-    <t>Kasimpasa,0 2 1 3 0 0</t>
-  </si>
-  <si>
-    <t>Kayserispor,0 2 3 3 1 0</t>
-  </si>
-  <si>
-    <t>Konyaspor,0 5 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Rizespor,2 3 2 3 0 4</t>
-  </si>
-  <si>
-    <t>Sivasspor,2 0 1 0 0 0</t>
-  </si>
-  <si>
-    <t>Trabzonspor,0 1 1 0 1 1</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,0 1 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Alanyaspor,5 1 5 0 0 3</t>
-  </si>
-  <si>
-    <t>Ankaragucu,4 2 3 1 3 3</t>
+    <t>Besiktas,0 1 2 0 3 2</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,0 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Denizlispor,1 1 6 1 1 4</t>
+  </si>
+  <si>
+    <t>Erzurum BB,0 2 2 3 1 2</t>
+  </si>
+  <si>
+    <t>Fenerbahce,1 2 0 1 1 2</t>
+  </si>
+  <si>
+    <t>Galatasaray,1 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Gaziantep,3 3 0 1 0 5</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,2 1 3 2 5 3</t>
+  </si>
+  <si>
+    <t>Goztep,3 1 1 2 1 5</t>
+  </si>
+  <si>
+    <t>Hatayspor,2 0 1 7 0 1</t>
+  </si>
+  <si>
+    <t>Karagumruk,1 2 2 5 1 1</t>
+  </si>
+  <si>
+    <t>Kasimpasa,2 1 3 0 0 1</t>
+  </si>
+  <si>
+    <t>Kayserispor,2 3 3 1 0 0</t>
+  </si>
+  <si>
+    <t>Konyaspor,5 0 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Rizespor,3 2 3 0 4 4</t>
+  </si>
+  <si>
+    <t>Sivasspor,0 1 0 0 0 1</t>
+  </si>
+  <si>
+    <t>Trabzonspor,1 1 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,1 1 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Alanyaspor,1 5 0 0 3 5</t>
+  </si>
+  <si>
+    <t>Ankaragucu,2 3 1 3 3 4</t>
   </si>
   <si>
     <t>Antalyaspor,5 5 1 4 5 3</t>
   </si>
   <si>
-    <t>Besiktas,4 0 4 5 7 4</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,3 1 0 3 3 0</t>
-  </si>
-  <si>
-    <t>Denizlispor,5 2 2 9 1 1</t>
-  </si>
-  <si>
-    <t>Erzurum BB,5 1 5 3 4 1</t>
-  </si>
-  <si>
-    <t>Fenerbahce,4 3 5 0 4 3</t>
-  </si>
-  <si>
-    <t>Galatasaray,4 2 1 1 2 4</t>
-  </si>
-  <si>
-    <t>Gaziantep,4 5 5 1 1 0</t>
-  </si>
-  <si>
-    <t>Genclerbirligi,5 4 3 4 2 6</t>
-  </si>
-  <si>
-    <t>Goztep,5 4 2 2 5 1</t>
-  </si>
-  <si>
-    <t>Hatayspor,2 5 0 4 7 1</t>
-  </si>
-  <si>
-    <t>Karagumruk,2 2 2 4 6 6</t>
-  </si>
-  <si>
-    <t>Kasimpasa,0 4 1 5 3 1</t>
-  </si>
-  <si>
-    <t>Kayserispor,0 4 4 9 2 0</t>
-  </si>
-  <si>
-    <t>Konyaspor,0 8 0 1 6 1</t>
-  </si>
-  <si>
-    <t>Rizespor,5 8 3 5 1 4</t>
-  </si>
-  <si>
-    <t>Sivasspor,5 0 2 1 1 0</t>
-  </si>
-  <si>
-    <t>Trabzonspor,0 2 2 2 2 3</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,1 1 3 1 2 4</t>
+    <t>Besiktas,0 4 5 7 4 3</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,1 0 3 3 0 0</t>
+  </si>
+  <si>
+    <t>Denizlispor,2 2 9 1 1 5</t>
+  </si>
+  <si>
+    <t>Erzurum BB,1 5 3 4 1 5</t>
+  </si>
+  <si>
+    <t>Fenerbahce,3 5 0 4 3 3</t>
+  </si>
+  <si>
+    <t>Galatasaray,2 1 1 2 4 5</t>
+  </si>
+  <si>
+    <t>Gaziantep,5 5 1 1 0 9</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,4 3 4 2 6 8</t>
+  </si>
+  <si>
+    <t>Goztep,4 2 2 5 1 8</t>
+  </si>
+  <si>
+    <t>Hatayspor,5 0 4 7 1 2</t>
+  </si>
+  <si>
+    <t>Karagumruk,2 2 4 6 6 3</t>
+  </si>
+  <si>
+    <t>Kasimpasa,4 1 5 3 1 4</t>
+  </si>
+  <si>
+    <t>Kayserispor,4 4 9 2 0 0</t>
+  </si>
+  <si>
+    <t>Konyaspor,8 0 1 6 1 2</t>
+  </si>
+  <si>
+    <t>Rizespor,8 3 5 1 4 9</t>
+  </si>
+  <si>
+    <t>Sivasspor,0 2 1 1 0 3</t>
+  </si>
+  <si>
+    <t>Trabzonspor,2 2 2 2 3 2</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,1 3 1 2 4 2</t>
   </si>
 </sst>
 </file>
@@ -1631,19 +1643,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -1657,25 +1669,25 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -1692,7 +1704,7 @@
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -1701,13 +1713,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1724,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1733,13 +1745,13 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1753,25 +1765,25 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1785,25 +1797,25 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1823,19 +1835,19 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1849,19 +1861,19 @@
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
@@ -1884,7 +1896,7 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -1893,13 +1905,13 @@
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -1919,19 +1931,19 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1948,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1977,7 +1989,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1986,16 +1998,16 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -2009,25 +2021,25 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -2041,25 +2053,25 @@
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2070,28 +2082,28 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -2105,25 +2117,25 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -2140,22 +2152,22 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
       </c>
       <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
         <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -2166,28 +2178,28 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -2198,28 +2210,28 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -2233,7 +2245,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -2242,16 +2254,16 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -2274,16 +2286,16 @@
         <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2302,405 +2314,408 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>115</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>117</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>120</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>121</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>133</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>134</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>137</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>138</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>139</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>141</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>142</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>143</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>145</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>146</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>147</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>148</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>150</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>151</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>152</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>153</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>154</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>155</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>157</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>158</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>159</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>160</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>161</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>162</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>163</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>164</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>165</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>166</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>167</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>168</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>170</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>171</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>172</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>173</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>174</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>175</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>176</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>177</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>178</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>179</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>180</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>181</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>182</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>183</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>184</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>185</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>186</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>187</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>188</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>189</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>190</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>191</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>192</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>193</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>194</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>195</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>196</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>197</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>198</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>199</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>200</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>201</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>202</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>203</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>204</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>205</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>206</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>207</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>208</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>209</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>210</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>211</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>212</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>213</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>214</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>215</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>216</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>217</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>218</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>219</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>220</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>221</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>222</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>223</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>224</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>225</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>226</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>227</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>228</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>229</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>230</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>232</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3110,10 +3125,13 @@
       <c r="EE2" t="s">
         <v>234</v>
       </c>
+      <c r="EF2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>234</v>
@@ -3515,12 +3533,15 @@
         <v>4</v>
       </c>
       <c r="EE3" t="s">
+        <v>4</v>
+      </c>
+      <c r="EF3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>234</v>
@@ -3923,6 +3944,9 @@
       </c>
       <c r="EE4" t="s">
         <v>4</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -4331,10 +4355,13 @@
       <c r="EE5" t="s">
         <v>4</v>
       </c>
+      <c r="EF5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>234</v>
@@ -4736,6 +4763,9 @@
         <v>2</v>
       </c>
       <c r="EE6" t="s">
+        <v>3</v>
+      </c>
+      <c r="EF6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5145,10 +5175,13 @@
       <c r="EE7" t="s">
         <v>4</v>
       </c>
+      <c r="EF7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>234</v>
@@ -5551,11 +5584,14 @@
       </c>
       <c r="EE8" t="s">
         <v>4</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -5958,11 +5994,14 @@
       </c>
       <c r="EE9" t="s">
         <v>2</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>234</v>
@@ -6364,12 +6403,15 @@
         <v>234</v>
       </c>
       <c r="EE10" t="s">
+        <v>2</v>
+      </c>
+      <c r="EF10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>234</v>
@@ -6772,6 +6814,9 @@
       </c>
       <c r="EE11" t="s">
         <v>3</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -7180,6 +7225,9 @@
       <c r="EE12" t="s">
         <v>4</v>
       </c>
+      <c r="EF12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -7587,10 +7635,13 @@
       <c r="EE13" t="s">
         <v>4</v>
       </c>
+      <c r="EF13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>234</v>
@@ -7993,11 +8044,14 @@
       </c>
       <c r="EE14" t="s">
         <v>2</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>234</v>
@@ -8399,12 +8453,15 @@
         <v>234</v>
       </c>
       <c r="EE15" t="s">
+        <v>2</v>
+      </c>
+      <c r="EF15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>234</v>
@@ -8806,6 +8863,9 @@
         <v>2</v>
       </c>
       <c r="EE16" t="s">
+        <v>2</v>
+      </c>
+      <c r="EF16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9215,6 +9275,9 @@
       <c r="EE17" t="s">
         <v>3</v>
       </c>
+      <c r="EF17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -9622,6 +9685,9 @@
       <c r="EE18" t="s">
         <v>2</v>
       </c>
+      <c r="EF18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -10029,10 +10095,13 @@
       <c r="EE19" t="s">
         <v>4</v>
       </c>
+      <c r="EF19" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>234</v>
@@ -10435,6 +10504,9 @@
       </c>
       <c r="EE20" t="s">
         <v>3</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -10843,10 +10915,13 @@
       <c r="EE21" t="s">
         <v>2</v>
       </c>
+      <c r="EF21" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>234</v>
@@ -11249,6 +11324,9 @@
       </c>
       <c r="EE22" t="s">
         <v>2</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11267,405 +11345,408 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>115</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>117</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>120</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>121</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>133</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>134</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>137</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>138</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>139</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>141</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>142</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>143</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>145</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>146</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>147</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>148</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>150</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>151</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>152</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>153</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>154</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>155</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>157</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>158</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>159</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>160</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>161</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>162</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>163</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>164</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>165</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>166</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>167</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>168</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>170</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>171</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>172</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>173</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>174</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>175</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>176</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>177</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>178</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>179</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>180</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>181</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>182</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>183</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>184</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>185</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>186</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>187</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>188</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>189</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>190</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>191</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>192</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>193</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>194</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>195</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>196</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>197</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>198</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>199</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>200</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>201</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>202</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>203</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>204</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>205</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>206</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>207</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>208</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>209</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>210</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>211</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>212</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>213</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>214</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>215</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>216</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>217</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>218</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>219</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>220</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>221</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>222</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>223</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>224</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>225</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>226</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>227</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>228</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>229</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>230</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>232</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -12075,10 +12156,13 @@
       <c r="EE2" t="s">
         <v>234</v>
       </c>
+      <c r="EF2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>234</v>
@@ -12480,12 +12564,15 @@
         <v>9</v>
       </c>
       <c r="EE3" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>234</v>
@@ -12888,6 +12975,9 @@
       </c>
       <c r="EE4" t="s">
         <v>9</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -13296,10 +13386,13 @@
       <c r="EE5" t="s">
         <v>9</v>
       </c>
+      <c r="EF5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>234</v>
@@ -13701,6 +13794,9 @@
         <v>10</v>
       </c>
       <c r="EE6" t="s">
+        <v>235</v>
+      </c>
+      <c r="EF6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -14110,10 +14206,13 @@
       <c r="EE7" t="s">
         <v>235</v>
       </c>
+      <c r="EF7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>234</v>
@@ -14516,11 +14615,14 @@
       </c>
       <c r="EE8" t="s">
         <v>235</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -14923,11 +15025,14 @@
       </c>
       <c r="EE9" t="s">
         <v>10</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>234</v>
@@ -15330,11 +15435,14 @@
       </c>
       <c r="EE10" t="s">
         <v>11</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>234</v>
@@ -15737,6 +15845,9 @@
       </c>
       <c r="EE11" t="s">
         <v>235</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -16145,6 +16256,9 @@
       <c r="EE12" t="s">
         <v>9</v>
       </c>
+      <c r="EF12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -16552,10 +16666,13 @@
       <c r="EE13" t="s">
         <v>235</v>
       </c>
+      <c r="EF13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>234</v>
@@ -16957,12 +17074,15 @@
         <v>234</v>
       </c>
       <c r="EE14" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>234</v>
@@ -17365,11 +17485,14 @@
       </c>
       <c r="EE15" t="s">
         <v>13</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>234</v>
@@ -17772,6 +17895,9 @@
       </c>
       <c r="EE16" t="s">
         <v>9</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -18180,6 +18306,9 @@
       <c r="EE17" t="s">
         <v>235</v>
       </c>
+      <c r="EF17" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -18587,6 +18716,9 @@
       <c r="EE18" t="s">
         <v>9</v>
       </c>
+      <c r="EF18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -18994,10 +19126,13 @@
       <c r="EE19" t="s">
         <v>235</v>
       </c>
+      <c r="EF19" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>234</v>
@@ -19400,6 +19535,9 @@
       </c>
       <c r="EE20" t="s">
         <v>235</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -19808,10 +19946,13 @@
       <c r="EE21" t="s">
         <v>10</v>
       </c>
+      <c r="EF21" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>234</v>
@@ -20214,6 +20355,9 @@
       </c>
       <c r="EE22" t="s">
         <v>12</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -20232,405 +20376,408 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>115</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>117</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>120</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>121</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>133</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>134</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>137</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>138</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>139</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>141</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>142</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>143</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>145</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>146</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>147</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>148</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>150</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>151</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>152</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>153</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>154</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>155</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>157</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>158</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>159</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>160</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>161</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>162</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>163</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>164</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>165</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>166</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>167</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>168</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>170</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>171</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>172</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>173</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>174</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>175</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>176</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>177</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>178</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>179</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>180</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>181</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>182</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>183</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>184</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>185</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>186</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>187</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>188</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>189</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>190</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>191</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>192</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>193</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>194</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>195</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>196</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>197</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>198</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>199</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>200</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>201</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>202</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>203</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>204</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>205</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>206</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>207</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>208</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>209</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>210</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>211</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>212</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>213</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>214</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>215</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>216</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>217</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>218</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>219</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>220</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>221</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>222</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>223</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>224</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>225</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>226</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>227</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>228</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>229</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>230</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>232</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -21040,10 +21187,13 @@
       <c r="EE2" t="s">
         <v>234</v>
       </c>
+      <c r="EF2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>234</v>
@@ -21446,11 +21596,14 @@
       </c>
       <c r="EE3" t="s">
         <v>10</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>234</v>
@@ -21853,6 +22006,9 @@
       </c>
       <c r="EE4" t="s">
         <v>10</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -22261,10 +22417,13 @@
       <c r="EE5" t="s">
         <v>11</v>
       </c>
+      <c r="EF5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>234</v>
@@ -22666,6 +22825,9 @@
         <v>9</v>
       </c>
       <c r="EE6" t="s">
+        <v>235</v>
+      </c>
+      <c r="EF6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -23075,10 +23237,13 @@
       <c r="EE7" t="s">
         <v>9</v>
       </c>
+      <c r="EF7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>234</v>
@@ -23481,11 +23646,14 @@
       </c>
       <c r="EE8" t="s">
         <v>9</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -23888,11 +24056,14 @@
       </c>
       <c r="EE9" t="s">
         <v>9</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>234</v>
@@ -24294,12 +24465,15 @@
         <v>234</v>
       </c>
       <c r="EE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>234</v>
@@ -24702,6 +24876,9 @@
       </c>
       <c r="EE11" t="s">
         <v>235</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -25110,6 +25287,9 @@
       <c r="EE12" t="s">
         <v>13</v>
       </c>
+      <c r="EF12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -25517,10 +25697,13 @@
       <c r="EE13" t="s">
         <v>9</v>
       </c>
+      <c r="EF13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>234</v>
@@ -25923,11 +26106,14 @@
       </c>
       <c r="EE14" t="s">
         <v>235</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>234</v>
@@ -26329,12 +26515,15 @@
         <v>234</v>
       </c>
       <c r="EE15" t="s">
+        <v>9</v>
+      </c>
+      <c r="EF15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>234</v>
@@ -26737,6 +26926,9 @@
       </c>
       <c r="EE16" t="s">
         <v>235</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -27145,6 +27337,9 @@
       <c r="EE17" t="s">
         <v>235</v>
       </c>
+      <c r="EF17" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -27552,6 +27747,9 @@
       <c r="EE18" t="s">
         <v>235</v>
       </c>
+      <c r="EF18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -27959,10 +28157,13 @@
       <c r="EE19" t="s">
         <v>12</v>
       </c>
+      <c r="EF19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>234</v>
@@ -28365,6 +28566,9 @@
       </c>
       <c r="EE20" t="s">
         <v>235</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -28773,10 +28977,13 @@
       <c r="EE21" t="s">
         <v>9</v>
       </c>
+      <c r="EF21" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>234</v>
@@ -29179,6 +29386,9 @@
       </c>
       <c r="EE22" t="s">
         <v>235</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -29197,405 +29407,408 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>115</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>117</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>120</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>121</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>133</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>134</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>137</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>138</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>139</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>140</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>141</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>142</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>143</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>145</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>146</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>147</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>148</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>150</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>151</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>152</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>153</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>154</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>155</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>157</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>158</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>159</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>160</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>161</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>162</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>163</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>164</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>165</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>166</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>167</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>168</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>170</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>171</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>172</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>173</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>174</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>175</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>176</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>177</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>178</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>179</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>180</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>181</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>182</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>183</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>184</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>185</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>186</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>187</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>188</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>189</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>190</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>191</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>192</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>193</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>194</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>195</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>196</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>197</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>198</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>199</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>200</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>201</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>202</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>203</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>204</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>205</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>206</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>207</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>208</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>209</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>210</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>211</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>212</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>213</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>214</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>215</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>216</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>217</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>218</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>219</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>220</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>221</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>222</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>223</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>224</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>225</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>226</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>227</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>228</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>229</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>230</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>232</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -30005,10 +30218,13 @@
       <c r="EE2" t="s">
         <v>234</v>
       </c>
+      <c r="EF2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>234</v>
@@ -30411,11 +30627,14 @@
       </c>
       <c r="EE3" t="s">
         <v>11</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>234</v>
@@ -30818,6 +31037,9 @@
       </c>
       <c r="EE4" t="s">
         <v>11</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -31226,10 +31448,13 @@
       <c r="EE5" t="s">
         <v>12</v>
       </c>
+      <c r="EF5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>234</v>
@@ -31631,6 +31856,9 @@
         <v>11</v>
       </c>
       <c r="EE6" t="s">
+        <v>235</v>
+      </c>
+      <c r="EF6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -32040,10 +32268,13 @@
       <c r="EE7" t="s">
         <v>9</v>
       </c>
+      <c r="EF7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>234</v>
@@ -32446,11 +32677,14 @@
       </c>
       <c r="EE8" t="s">
         <v>9</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -32852,12 +33086,15 @@
         <v>12</v>
       </c>
       <c r="EE9" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>234</v>
@@ -33260,11 +33497,14 @@
       </c>
       <c r="EE10" t="s">
         <v>12</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>234</v>
@@ -33667,6 +33907,9 @@
       </c>
       <c r="EE11" t="s">
         <v>235</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -34075,6 +34318,9 @@
       <c r="EE12" t="s">
         <v>14</v>
       </c>
+      <c r="EF12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -34482,10 +34728,13 @@
       <c r="EE13" t="s">
         <v>9</v>
       </c>
+      <c r="EF13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>234</v>
@@ -34888,11 +35137,14 @@
       </c>
       <c r="EE14" t="s">
         <v>9</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>234</v>
@@ -35295,11 +35547,14 @@
       </c>
       <c r="EE15" t="s">
         <v>14</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>234</v>
@@ -35702,6 +35957,9 @@
       </c>
       <c r="EE16" t="s">
         <v>9</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -36110,6 +36368,9 @@
       <c r="EE17" t="s">
         <v>235</v>
       </c>
+      <c r="EF17" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -36517,6 +36778,9 @@
       <c r="EE18" t="s">
         <v>9</v>
       </c>
+      <c r="EF18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -36924,10 +37188,13 @@
       <c r="EE19" t="s">
         <v>12</v>
       </c>
+      <c r="EF19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>234</v>
@@ -37330,6 +37597,9 @@
       </c>
       <c r="EE20" t="s">
         <v>235</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -37738,10 +38008,13 @@
       <c r="EE21" t="s">
         <v>11</v>
       </c>
+      <c r="EF21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>234</v>
@@ -38144,6 +38417,9 @@
       </c>
       <c r="EE22" t="s">
         <v>12</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -38165,16 +38441,16 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>50</v>
@@ -38183,13 +38459,13 @@
         <v>236</v>
       </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
         <v>49</v>
@@ -38198,13 +38474,13 @@
         <v>39</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q1" t="s">
         <v>46</v>
@@ -38216,7 +38492,7 @@
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U1" t="s">
         <v>33</v>
@@ -38263,7 +38539,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>235</v>
@@ -38311,21 +38587,21 @@
         <v>243</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z2" t="s">
         <v>51</v>
       </c>
       <c r="AA2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>234</v>
@@ -38391,24 +38667,24 @@
         <v>12</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Y3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z3" t="s">
         <v>51</v>
       </c>
       <c r="AA3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -38474,19 +38750,19 @@
         <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="X4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
@@ -38533,7 +38809,7 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="P5" t="s">
         <v>11</v>
@@ -38557,24 +38833,24 @@
         <v>9</v>
       </c>
       <c r="W5" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="X5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Z5" t="s">
         <v>51</v>
       </c>
       <c r="AA5" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>235</v>
@@ -38622,7 +38898,7 @@
         <v>12</v>
       </c>
       <c r="Q6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R6" t="s">
         <v>10</v>
@@ -38640,19 +38916,19 @@
         <v>12</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z6" t="s">
         <v>51</v>
       </c>
       <c r="AA6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
@@ -38684,7 +38960,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -38723,24 +38999,24 @@
         <v>13</v>
       </c>
       <c r="W7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Z7" t="s">
         <v>51</v>
       </c>
       <c r="AA7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -38806,24 +39082,24 @@
         <v>9</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z8" t="s">
         <v>52</v>
       </c>
       <c r="AA8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -38880,7 +39156,7 @@
         <v>9</v>
       </c>
       <c r="T9" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="U9" t="s">
         <v>12</v>
@@ -38889,10 +39165,10 @@
         <v>11</v>
       </c>
       <c r="W9" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s">
         <v>251</v>
@@ -38901,12 +39177,12 @@
         <v>51</v>
       </c>
       <c r="AA9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -38972,24 +39248,24 @@
         <v>234</v>
       </c>
       <c r="W10" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="X10" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="Y10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z10" t="s">
         <v>51</v>
       </c>
       <c r="AA10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -39043,7 +39319,7 @@
         <v>9</v>
       </c>
       <c r="S11" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="T11" t="s">
         <v>9</v>
@@ -39055,19 +39331,19 @@
         <v>12</v>
       </c>
       <c r="W11" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="X11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Y11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z11" t="s">
         <v>51</v>
       </c>
       <c r="AA11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -39108,7 +39384,7 @@
         <v>234</v>
       </c>
       <c r="M12" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
@@ -39138,19 +39414,19 @@
         <v>10</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X12" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
       </c>
       <c r="AA12" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -39221,24 +39497,24 @@
         <v>12</v>
       </c>
       <c r="W13" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="X13" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="Y13" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Z13" t="s">
         <v>51</v>
       </c>
       <c r="AA13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>235</v>
@@ -39304,24 +39580,24 @@
         <v>11</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X14" t="s">
         <v>62</v>
       </c>
       <c r="Y14" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Z14" t="s">
         <v>51</v>
       </c>
       <c r="AA14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -39387,10 +39663,10 @@
         <v>11</v>
       </c>
       <c r="W15" t="s">
+        <v>245</v>
+      </c>
+      <c r="X15" t="s">
         <v>244</v>
-      </c>
-      <c r="X15" t="s">
-        <v>72</v>
       </c>
       <c r="Y15" t="s">
         <v>251</v>
@@ -39399,18 +39675,18 @@
         <v>51</v>
       </c>
       <c r="AA15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -39470,19 +39746,19 @@
         <v>235</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="Z16" t="s">
         <v>51</v>
       </c>
       <c r="AA16" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17">
@@ -39553,19 +39829,19 @@
         <v>9</v>
       </c>
       <c r="W17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Z17" t="s">
         <v>51</v>
       </c>
       <c r="AA17" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18">
@@ -39630,25 +39906,25 @@
         <v>9</v>
       </c>
       <c r="U18" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="V18" t="s">
         <v>10</v>
       </c>
       <c r="W18" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Z18" t="s">
         <v>51</v>
       </c>
       <c r="AA18" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19">
@@ -39719,24 +39995,24 @@
         <v>12</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Y19" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Z19" t="s">
         <v>51</v>
       </c>
       <c r="AA19" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -39802,19 +40078,19 @@
         <v>9</v>
       </c>
       <c r="W20" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="X20" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="Y20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Z20" t="s">
         <v>51</v>
       </c>
       <c r="AA20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21">
@@ -39885,13 +40161,13 @@
         <v>12</v>
       </c>
       <c r="W21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="Y21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z21" t="s">
         <v>51</v>
@@ -39902,7 +40178,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -39941,7 +40217,7 @@
         <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="O22" t="s">
         <v>235</v>
@@ -39968,19 +40244,19 @@
         <v>234</v>
       </c>
       <c r="W22" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="X22" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="Z22" t="s">
         <v>51</v>
       </c>
       <c r="AA22" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -39999,76 +40275,76 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N1" t="s">
         <v>241</v>
       </c>
       <c r="O1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="R1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="S1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="T1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="U1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="V1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="W1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="X1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Y1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
@@ -40079,19 +40355,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>135.0</v>
+        <v>141.0</v>
       </c>
       <c r="D2" t="n">
         <v>96.0</v>
       </c>
       <c r="E2" t="n">
-        <v>231.0</v>
+        <v>237.0</v>
       </c>
       <c r="F2" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1052631578947367</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>15.0</v>
@@ -40100,34 +40376,34 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="J2" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="K2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N2" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.0</v>
+        <v>59.0</v>
       </c>
       <c r="P2" t="n">
         <v>71.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.0</v>
+        <v>130.0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9473684210526315</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>24.0</v>
@@ -40136,16 +40412,16 @@
         <v>1.263157894736842</v>
       </c>
       <c r="V2" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="W2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="X2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Y2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -40153,16 +40429,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
         <v>86.0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>72.0</v>
       </c>
       <c r="E3" t="n">
-        <v>151.0</v>
+        <v>158.0</v>
       </c>
       <c r="F3" t="n">
         <v>26.0</v>
@@ -40171,34 +40447,34 @@
         <v>1.368421052631579</v>
       </c>
       <c r="H3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
       </c>
       <c r="J3" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="K3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N3" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O3" t="n">
         <v>68.0</v>
       </c>
       <c r="P3" t="n">
-        <v>100.0</v>
+        <v>105.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.0</v>
+        <v>173.0</v>
       </c>
       <c r="R3" t="n">
         <v>24.0</v>
@@ -40207,22 +40483,22 @@
         <v>1.263157894736842</v>
       </c>
       <c r="T3" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9473684210526316</v>
+        <v>2.0</v>
       </c>
       <c r="V3" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="W3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="X3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
@@ -40230,7 +40506,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>69.0</v>
@@ -40257,13 +40533,13 @@
         <v>41.0</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N4" t="n">
         <v>39.0</v>
@@ -40293,13 +40569,13 @@
         <v>55.0</v>
       </c>
       <c r="W4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="X4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5">
@@ -40310,19 +40586,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>114.0</v>
+        <v>119.0</v>
       </c>
       <c r="D5" t="n">
         <v>90.0</v>
       </c>
       <c r="E5" t="n">
-        <v>204.0</v>
+        <v>209.0</v>
       </c>
       <c r="F5" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.526315789473684</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>38.0</v>
@@ -40331,34 +40607,34 @@
         <v>2.0</v>
       </c>
       <c r="J5" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="K5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N5" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O5" t="n">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="P5" t="n">
         <v>64.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.0</v>
+        <v>125.0</v>
       </c>
       <c r="R5" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7</v>
       </c>
       <c r="T5" t="n">
         <v>29.0</v>
@@ -40367,16 +40643,16 @@
         <v>1.5263157894736843</v>
       </c>
       <c r="V5" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="W5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="X5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6">
@@ -40384,7 +40660,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
         <v>91.0</v>
@@ -40399,7 +40675,7 @@
         <v>26.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.368421052631579</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -40411,31 +40687,31 @@
         <v>41.0</v>
       </c>
       <c r="K6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N6" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O6" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="P6" t="n">
         <v>77.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.0</v>
+        <v>152.0</v>
       </c>
       <c r="R6" t="n">
         <v>28.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4736842105263157</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
         <v>27.0</v>
@@ -40447,13 +40723,13 @@
         <v>55.0</v>
       </c>
       <c r="W6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="X6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Y6" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7">
@@ -40464,19 +40740,19 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="D7" t="n">
         <v>74.0</v>
       </c>
       <c r="E7" t="n">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.85</v>
       </c>
       <c r="H7" t="n">
         <v>20.0</v>
@@ -40485,34 +40761,34 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="J7" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N7" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O7" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="P7" t="n">
         <v>115.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>185.0</v>
+        <v>195.0</v>
       </c>
       <c r="R7" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.2105263157894737</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
         <v>45.0</v>
@@ -40521,16 +40797,16 @@
         <v>2.3684210526315788</v>
       </c>
       <c r="V7" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="W7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="X7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8">
@@ -40538,16 +40814,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
         <v>69.0</v>
       </c>
       <c r="D8" t="n">
-        <v>90.0</v>
+        <v>96.0</v>
       </c>
       <c r="E8" t="n">
-        <v>159.0</v>
+        <v>165.0</v>
       </c>
       <c r="F8" t="n">
         <v>18.0</v>
@@ -40556,34 +40832,34 @@
         <v>0.9</v>
       </c>
       <c r="H8" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2105263157894737</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="K8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="N8" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="O8" t="n">
         <v>86.0</v>
       </c>
       <c r="P8" t="n">
-        <v>100.0</v>
+        <v>106.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.0</v>
+        <v>192.0</v>
       </c>
       <c r="R8" t="n">
         <v>30.0</v>
@@ -40592,22 +40868,22 @@
         <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.894736842105263</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="W8" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="X8" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="Y8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9">
@@ -40615,22 +40891,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>113.0</v>
+        <v>120.0</v>
       </c>
       <c r="D9" t="n">
         <v>101.0</v>
       </c>
       <c r="E9" t="n">
-        <v>214.0</v>
+        <v>221.0</v>
       </c>
       <c r="F9" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.736842105263158</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>36.0</v>
@@ -40639,34 +40915,34 @@
         <v>1.894736842105263</v>
       </c>
       <c r="J9" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="K9" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M9" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N9" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O9" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="P9" t="n">
         <v>75.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>132.0</v>
+        <v>135.0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.2105263157894737</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
         <v>15.0</v>
@@ -40675,16 +40951,16 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="V9" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="W9" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="X9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Y9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10">
@@ -40692,16 +40968,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
         <v>125.0</v>
       </c>
       <c r="D10" t="n">
-        <v>92.0</v>
+        <v>102.0</v>
       </c>
       <c r="E10" t="n">
-        <v>217.0</v>
+        <v>227.0</v>
       </c>
       <c r="F10" t="n">
         <v>42.0</v>
@@ -40710,34 +40986,34 @@
         <v>2.210526315789474</v>
       </c>
       <c r="H10" t="n">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.631578947368421</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="K10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="N10" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O10" t="n">
         <v>66.0</v>
       </c>
       <c r="P10" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="R10" t="n">
         <v>16.0</v>
@@ -40746,22 +41022,22 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="T10" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="V10" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="W10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="X10" t="s">
-        <v>305</v>
+        <v>377</v>
       </c>
       <c r="Y10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11">
@@ -40769,22 +41045,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>87.0</v>
+        <v>94.0</v>
       </c>
       <c r="D11" t="n">
         <v>63.0</v>
       </c>
       <c r="E11" t="n">
-        <v>150.0</v>
+        <v>157.0</v>
       </c>
       <c r="F11" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.736842105263158</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
         <v>21.0</v>
@@ -40793,34 +41069,34 @@
         <v>1.105263157894737</v>
       </c>
       <c r="J11" t="n">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="K11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M11" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="N11" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O11" t="n">
-        <v>81.0</v>
+        <v>87.0</v>
       </c>
       <c r="P11" t="n">
         <v>88.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.0</v>
+        <v>175.0</v>
       </c>
       <c r="R11" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="T11" t="n">
         <v>27.0</v>
@@ -40829,16 +41105,16 @@
         <v>1.4210526315789473</v>
       </c>
       <c r="V11" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="W11" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="X11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Y11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12">
@@ -40849,19 +41125,19 @@
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>64.0</v>
+        <v>72.0</v>
       </c>
       <c r="D12" t="n">
         <v>64.0</v>
       </c>
       <c r="E12" t="n">
-        <v>128.0</v>
+        <v>136.0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.1578947368421053</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
         <v>16.0</v>
@@ -40870,34 +41146,34 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="J12" t="n">
-        <v>38.0</v>
+        <v>43.0</v>
       </c>
       <c r="K12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M12" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N12" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O12" t="n">
-        <v>107.0</v>
+        <v>110.0</v>
       </c>
       <c r="P12" t="n">
         <v>116.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>223.0</v>
+        <v>226.0</v>
       </c>
       <c r="R12" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.6842105263157894</v>
+        <v>1.75</v>
       </c>
       <c r="T12" t="n">
         <v>39.0</v>
@@ -40906,16 +41182,16 @@
         <v>2.0526315789473686</v>
       </c>
       <c r="V12" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="W12" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="X12" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Y12" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13">
@@ -40929,10 +41205,10 @@
         <v>76.0</v>
       </c>
       <c r="D13" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0</v>
+        <v>131.0</v>
       </c>
       <c r="F13" t="n">
         <v>34.0</v>
@@ -40941,34 +41217,34 @@
         <v>1.7894736842105263</v>
       </c>
       <c r="H13" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.105263157894737</v>
+        <v>1.2</v>
       </c>
       <c r="J13" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="K13" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L13" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M13" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="N13" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O13" t="n">
         <v>81.0</v>
       </c>
       <c r="P13" t="n">
-        <v>99.0</v>
+        <v>107.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>180.0</v>
+        <v>188.0</v>
       </c>
       <c r="R13" t="n">
         <v>25.0</v>
@@ -40977,22 +41253,22 @@
         <v>1.3157894736842106</v>
       </c>
       <c r="T13" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4210526315789473</v>
+        <v>1.6</v>
       </c>
       <c r="V13" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="W13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="X13" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Y13" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14">
@@ -41000,16 +41276,16 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
         <v>97.0</v>
       </c>
       <c r="D14" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="E14" t="n">
-        <v>171.0</v>
+        <v>173.0</v>
       </c>
       <c r="F14" t="n">
         <v>35.0</v>
@@ -41018,34 +41294,34 @@
         <v>1.8421052631578947</v>
       </c>
       <c r="H14" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.368421052631579</v>
+        <v>1.35</v>
       </c>
       <c r="J14" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="K14" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L14" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M14" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N14" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O14" t="n">
         <v>82.0</v>
       </c>
       <c r="P14" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="R14" t="n">
         <v>22.0</v>
@@ -41054,22 +41330,22 @@
         <v>1.1578947368421053</v>
       </c>
       <c r="T14" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.5263157894736843</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="W14" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="X14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Y14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15">
@@ -41077,16 +41353,16 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
         <v>82.0</v>
       </c>
       <c r="D15" t="n">
-        <v>81.0</v>
+        <v>86.0</v>
       </c>
       <c r="E15" t="n">
-        <v>163.0</v>
+        <v>168.0</v>
       </c>
       <c r="F15" t="n">
         <v>37.0</v>
@@ -41095,34 +41371,34 @@
         <v>1.9473684210526316</v>
       </c>
       <c r="H15" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0526315789473684</v>
+        <v>1.1</v>
       </c>
       <c r="J15" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="K15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L15" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M15" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N15" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O15" t="n">
         <v>72.0</v>
       </c>
       <c r="P15" t="n">
-        <v>93.0</v>
+        <v>98.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.0</v>
+        <v>170.0</v>
       </c>
       <c r="R15" t="n">
         <v>19.0</v>
@@ -41131,22 +41407,22 @@
         <v>1.0</v>
       </c>
       <c r="T15" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.631578947368421</v>
+        <v>1.6</v>
       </c>
       <c r="V15" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="W15" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="X15" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="Y15" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16">
@@ -41154,22 +41430,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>94.0</v>
+        <v>99.0</v>
       </c>
       <c r="D16" t="n">
         <v>79.0</v>
       </c>
       <c r="E16" t="n">
-        <v>173.0</v>
+        <v>178.0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.2105263157894737</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>20.0</v>
@@ -41178,34 +41454,34 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="J16" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="K16" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L16" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M16" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N16" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O16" t="n">
-        <v>74.0</v>
+        <v>81.0</v>
       </c>
       <c r="P16" t="n">
         <v>93.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.0</v>
+        <v>174.0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.263157894736842</v>
+        <v>1.25</v>
       </c>
       <c r="T16" t="n">
         <v>30.0</v>
@@ -41214,16 +41490,16 @@
         <v>1.5789473684210527</v>
       </c>
       <c r="V16" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="W16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="X16" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="Y16" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17">
@@ -41237,10 +41513,10 @@
         <v>84.0</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="E17" t="n">
-        <v>137.0</v>
+        <v>139.0</v>
       </c>
       <c r="F17" t="n">
         <v>19.0</v>
@@ -41252,22 +41528,22 @@
         <v>15.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="J17" t="n">
         <v>34.0</v>
       </c>
       <c r="K17" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L17" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M17" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N17" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O17" t="n">
         <v>79.0</v>
@@ -41288,19 +41564,19 @@
         <v>27.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4210526315789473</v>
+        <v>1.35</v>
       </c>
       <c r="V17" t="n">
         <v>50.0</v>
       </c>
       <c r="W17" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="X17" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Y17" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18">
@@ -41311,19 +41587,19 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>92.0</v>
+        <v>98.0</v>
       </c>
       <c r="D18" t="n">
         <v>73.0</v>
       </c>
       <c r="E18" t="n">
-        <v>165.0</v>
+        <v>171.0</v>
       </c>
       <c r="F18" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.368421052631579</v>
+        <v>1.35</v>
       </c>
       <c r="H18" t="n">
         <v>22.0</v>
@@ -41332,34 +41608,34 @@
         <v>1.1578947368421053</v>
       </c>
       <c r="J18" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="K18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L18" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M18" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N18" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O18" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="P18" t="n">
         <v>80.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.0</v>
+        <v>150.0</v>
       </c>
       <c r="R18" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="T18" t="n">
         <v>29.0</v>
@@ -41368,16 +41644,16 @@
         <v>1.5263157894736843</v>
       </c>
       <c r="V18" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="W18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="X18" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Y18" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19">
@@ -41391,10 +41667,10 @@
         <v>89.0</v>
       </c>
       <c r="D19" t="n">
-        <v>58.0</v>
+        <v>64.0</v>
       </c>
       <c r="E19" t="n">
-        <v>147.0</v>
+        <v>153.0</v>
       </c>
       <c r="F19" t="n">
         <v>27.0</v>
@@ -41403,34 +41679,34 @@
         <v>1.4210526315789473</v>
       </c>
       <c r="H19" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.105263157894737</v>
+        <v>1.3</v>
       </c>
       <c r="J19" t="n">
-        <v>48.0</v>
+        <v>53.0</v>
       </c>
       <c r="K19" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M19" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N19" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O19" t="n">
         <v>106.0</v>
       </c>
       <c r="P19" t="n">
-        <v>106.0</v>
+        <v>113.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.0</v>
+        <v>219.0</v>
       </c>
       <c r="R19" t="n">
         <v>28.0</v>
@@ -41439,22 +41715,22 @@
         <v>1.4736842105263157</v>
       </c>
       <c r="T19" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8421052631578947</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="W19" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="X19" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Y19" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20">
@@ -41462,16 +41738,16 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
         <v>78.0</v>
       </c>
       <c r="D20" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="E20" t="n">
-        <v>155.0</v>
+        <v>158.0</v>
       </c>
       <c r="F20" t="n">
         <v>17.0</v>
@@ -41480,34 +41756,34 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="H20" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.736842105263158</v>
+        <v>1.75</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="K20" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L20" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M20" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="N20" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O20" t="n">
         <v>58.0</v>
       </c>
       <c r="P20" t="n">
-        <v>81.0</v>
+        <v>88.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.0</v>
+        <v>146.0</v>
       </c>
       <c r="R20" t="n">
         <v>14.0</v>
@@ -41516,22 +41792,22 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="T20" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.4210526315789473</v>
+        <v>1.4</v>
       </c>
       <c r="V20" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="W20" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="X20" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="Y20" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21">
@@ -41545,10 +41821,10 @@
         <v>98.0</v>
       </c>
       <c r="D21" t="n">
-        <v>78.0</v>
+        <v>83.0</v>
       </c>
       <c r="E21" t="n">
-        <v>176.0</v>
+        <v>181.0</v>
       </c>
       <c r="F21" t="n">
         <v>28.0</v>
@@ -41557,34 +41833,34 @@
         <v>1.4736842105263157</v>
       </c>
       <c r="H21" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K21" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L21" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M21" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="N21" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O21" t="n">
         <v>85.0</v>
       </c>
       <c r="P21" t="n">
-        <v>64.0</v>
+        <v>70.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>149.0</v>
+        <v>155.0</v>
       </c>
       <c r="R21" t="n">
         <v>23.0</v>
@@ -41593,22 +41869,22 @@
         <v>1.2105263157894737</v>
       </c>
       <c r="T21" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.631578947368421</v>
+        <v>0.65</v>
       </c>
       <c r="V21" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="W21" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Y21" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22">
@@ -41616,22 +41892,22 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="D22" t="n">
         <v>72.0</v>
       </c>
       <c r="E22" t="n">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
       <c r="F22" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.3157894736842106</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>22.0</v>
@@ -41640,34 +41916,34 @@
         <v>1.1578947368421053</v>
       </c>
       <c r="J22" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K22" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L22" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M22" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="N22" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="O22" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="P22" t="n">
         <v>94.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>158.0</v>
+        <v>160.0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.105263157894737</v>
+        <v>1.1</v>
       </c>
       <c r="T22" t="n">
         <v>28.0</v>
@@ -41676,16 +41952,16 @@
         <v>1.4736842105263157</v>
       </c>
       <c r="V22" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="W22" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="X22" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="Y22" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -41704,16 +41980,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
@@ -41721,16 +41997,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3">
@@ -41738,16 +42014,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
@@ -41755,16 +42031,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5">
@@ -41772,16 +42048,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
@@ -41789,16 +42065,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7">
@@ -41806,16 +42082,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8">
@@ -41823,16 +42099,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9">
@@ -41840,16 +42116,16 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10">
@@ -41857,16 +42133,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C10" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11">
@@ -41874,16 +42150,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
@@ -41891,16 +42167,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13">
@@ -41908,16 +42184,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">
@@ -41925,16 +42201,16 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -41942,16 +42218,16 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16">
@@ -41959,16 +42235,16 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17">
@@ -41976,16 +42252,16 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18">
@@ -41993,16 +42269,16 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19">
@@ -42010,16 +42286,16 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E19" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20">
@@ -42027,16 +42303,16 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21">
@@ -42044,16 +42320,16 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E21" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22">
@@ -42061,16 +42337,16 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C22" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E22" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/T1.xlsx
+++ b/Divisions/T1.xlsx
@@ -1377,193 +1377,193 @@
     <t>Yeni Malatyaspor,W L D W D L</t>
   </si>
   <si>
-    <t>Alanyaspor,3 0 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Ankaragucu,1 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Antalyaspor,2 0 2 2 1 0</t>
-  </si>
-  <si>
-    <t>Besiktas,3 3 7 1 1 2</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,0 2 2 0 0 2</t>
-  </si>
-  <si>
-    <t>Denizlispor,1 3 0 0 1 1</t>
-  </si>
-  <si>
-    <t>Erzurum BB,1 3 1 1 0 3</t>
-  </si>
-  <si>
-    <t>Fenerbahce,3 0 3 2 1 2</t>
-  </si>
-  <si>
-    <t>Galatasaray,1 1 2 3 4 3</t>
-  </si>
-  <si>
-    <t>Gaziantep,2 1 0 0 4 1</t>
-  </si>
-  <si>
-    <t>Genclerbirligi,2 1 0 1 5 1</t>
-  </si>
-  <si>
-    <t>Goztep,1 1 3 0 3 1</t>
-  </si>
-  <si>
-    <t>Hatayspor,0 3 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Karagumruk,0 2 1 5 2 5</t>
-  </si>
-  <si>
-    <t>Kasimpasa,0 2 3 1 3 1</t>
-  </si>
-  <si>
-    <t>Kayserispor,1 6 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Konyaspor,0 0 5 1 1 0</t>
-  </si>
-  <si>
-    <t>Rizespor,1 2 1 0 5 0</t>
-  </si>
-  <si>
-    <t>Sivasspor,1 1 1 0 2 2</t>
-  </si>
-  <si>
-    <t>Trabzonspor,1 2 1 2 1 2</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,2 0 1 4 1 1</t>
-  </si>
-  <si>
-    <t>Alanyaspor,2 0 0 3 3 0</t>
-  </si>
-  <si>
-    <t>Ankaragucu,2 1 2 2 3 1</t>
-  </si>
-  <si>
-    <t>Antalyaspor,3 1 2 3 2 0</t>
-  </si>
-  <si>
-    <t>Besiktas,1 2 0 3 2 1</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,0 1 1 0 0 0</t>
-  </si>
-  <si>
-    <t>Denizlispor,1 6 1 1 4 5</t>
-  </si>
-  <si>
-    <t>Erzurum BB,0 2 2 3 1 2</t>
-  </si>
-  <si>
-    <t>Fenerbahce,2 0 1 1 2 1</t>
-  </si>
-  <si>
-    <t>Galatasaray,0 0 0 1 1 1</t>
-  </si>
-  <si>
-    <t>Gaziantep,3 0 1 0 5 0</t>
-  </si>
-  <si>
-    <t>Genclerbirligi,1 3 2 5 3 2</t>
-  </si>
-  <si>
-    <t>Goztep,1 1 2 1 5 2</t>
-  </si>
-  <si>
-    <t>Hatayspor,0 1 7 0 1 1</t>
-  </si>
-  <si>
-    <t>Karagumruk,2 2 5 1 1 1</t>
-  </si>
-  <si>
-    <t>Kasimpasa,1 3 0 0 1 2</t>
-  </si>
-  <si>
-    <t>Kayserispor,3 3 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Konyaspor,0 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Rizespor,2 3 0 4 4 2</t>
-  </si>
-  <si>
-    <t>Sivasspor,1 0 0 0 1 1</t>
-  </si>
-  <si>
-    <t>Trabzonspor,1 0 1 1 1 1</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,1 1 1 0 1 3</t>
-  </si>
-  <si>
-    <t>Alanyaspor,5 0 0 3 5 1</t>
-  </si>
-  <si>
-    <t>Ankaragucu,3 1 3 3 4 1</t>
-  </si>
-  <si>
-    <t>Antalyaspor,5 1 4 5 3 0</t>
-  </si>
-  <si>
-    <t>Besiktas,4 5 7 4 3 3</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,0 3 3 0 0 2</t>
-  </si>
-  <si>
-    <t>Denizlispor,2 9 1 1 5 6</t>
-  </si>
-  <si>
-    <t>Erzurum BB,1 5 3 4 1 5</t>
-  </si>
-  <si>
-    <t>Fenerbahce,5 0 4 3 3 3</t>
-  </si>
-  <si>
-    <t>Galatasaray,1 1 2 4 5 4</t>
-  </si>
-  <si>
-    <t>Gaziantep,5 1 1 0 9 1</t>
-  </si>
-  <si>
-    <t>Genclerbirligi,3 4 2 6 8 3</t>
-  </si>
-  <si>
-    <t>Goztep,2 2 5 1 8 3</t>
-  </si>
-  <si>
-    <t>Hatayspor,0 4 7 1 2 1</t>
-  </si>
-  <si>
-    <t>Karagumruk,2 4 6 6 3 6</t>
-  </si>
-  <si>
-    <t>Kasimpasa,1 5 3 1 4 3</t>
-  </si>
-  <si>
-    <t>Kayserispor,4 9 2 0 0 3</t>
-  </si>
-  <si>
-    <t>Konyaspor,0 1 6 1 2 0</t>
-  </si>
-  <si>
-    <t>Rizespor,3 5 1 4 9 2</t>
-  </si>
-  <si>
-    <t>Sivasspor,2 1 1 0 3 3</t>
-  </si>
-  <si>
-    <t>Trabzonspor,2 2 2 3 2 3</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,3 1 2 4 2 4</t>
+    <t>Alanyaspor,3 0 0 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Ankaragucu,1 0 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Antalyaspor,2 0 2 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Besiktas,3 3 7 1 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,0 2 2 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Denizlispor,1 3 0 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Erzurum BB,1 3 1 1 0 3,(9)</t>
+  </si>
+  <si>
+    <t>Fenerbahce,3 0 3 2 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Galatasaray,1 1 2 3 4 3,(14)</t>
+  </si>
+  <si>
+    <t>Gaziantep,2 1 0 0 4 1,(8)</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,2 1 0 1 5 1,(10)</t>
+  </si>
+  <si>
+    <t>Goztep,1 1 3 0 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Hatayspor,0 3 0 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Karagumruk,0 2 1 5 2 5,(15)</t>
+  </si>
+  <si>
+    <t>Kasimpasa,0 2 3 1 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Kayserispor,1 6 1 0 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Konyaspor,0 0 5 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Rizespor,1 2 1 0 5 0,(9)</t>
+  </si>
+  <si>
+    <t>Sivasspor,1 1 1 0 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Trabzonspor,1 2 1 2 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,2 0 1 4 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Alanyaspor,2 0 0 3 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Ankaragucu,2 1 2 2 3 1,(11)</t>
+  </si>
+  <si>
+    <t>Antalyaspor,3 1 2 3 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Besiktas,1 2 0 3 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,0 1 1 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Denizlispor,1 6 1 1 4 5,(18)</t>
+  </si>
+  <si>
+    <t>Erzurum BB,0 2 2 3 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Fenerbahce,2 0 1 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Galatasaray,0 0 0 1 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Gaziantep,3 0 1 0 5 0,(9)</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,1 3 2 5 3 2,(16)</t>
+  </si>
+  <si>
+    <t>Goztep,1 1 2 1 5 2,(12)</t>
+  </si>
+  <si>
+    <t>Hatayspor,0 1 7 0 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Karagumruk,2 2 5 1 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Kasimpasa,1 3 0 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Kayserispor,3 3 1 0 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Konyaspor,0 1 1 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Rizespor,2 3 0 4 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Sivasspor,1 0 0 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Trabzonspor,1 0 1 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,1 1 1 0 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Alanyaspor,5 0 0 3 5 1,(14)</t>
+  </si>
+  <si>
+    <t>Ankaragucu,3 1 3 3 4 1,(15)</t>
+  </si>
+  <si>
+    <t>Antalyaspor,5 1 4 5 3 0,(18)</t>
+  </si>
+  <si>
+    <t>Besiktas,4 5 7 4 3 3,(26)</t>
+  </si>
+  <si>
+    <t>Buyuksehyr,0 3 3 0 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Denizlispor,2 9 1 1 5 6,(24)</t>
+  </si>
+  <si>
+    <t>Erzurum BB,1 5 3 4 1 5,(19)</t>
+  </si>
+  <si>
+    <t>Fenerbahce,5 0 4 3 3 3,(18)</t>
+  </si>
+  <si>
+    <t>Galatasaray,1 1 2 4 5 4,(17)</t>
+  </si>
+  <si>
+    <t>Gaziantep,5 1 1 0 9 1,(17)</t>
+  </si>
+  <si>
+    <t>Genclerbirligi,3 4 2 6 8 3,(26)</t>
+  </si>
+  <si>
+    <t>Goztep,2 2 5 1 8 3,(21)</t>
+  </si>
+  <si>
+    <t>Hatayspor,0 4 7 1 2 1,(15)</t>
+  </si>
+  <si>
+    <t>Karagumruk,2 4 6 6 3 6,(27)</t>
+  </si>
+  <si>
+    <t>Kasimpasa,1 5 3 1 4 3,(17)</t>
+  </si>
+  <si>
+    <t>Kayserispor,4 9 2 0 0 3,(18)</t>
+  </si>
+  <si>
+    <t>Konyaspor,0 1 6 1 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Rizespor,3 5 1 4 9 2,(24)</t>
+  </si>
+  <si>
+    <t>Sivasspor,2 1 1 0 3 3,(10)</t>
+  </si>
+  <si>
+    <t>Trabzonspor,2 2 2 3 2 3,(14)</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor,3 1 2 4 2 4,(16)</t>
   </si>
   <si>
     <t>Alanyaspor,Gaziantep Buyuksehyr Fenerbahce Kasimpasa Erzurum BB Ankaragucu</t>

--- a/Divisions/T1.xlsx
+++ b/Divisions/T1.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7041" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6874" uniqueCount="430">
   <si>
     <t>Team</t>
   </si>
@@ -1313,447 +1312,6 @@
   </si>
   <si>
     <t>30.58%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor,L W W L L W</t>
-  </si>
-  <si>
-    <t>Alanyaspor,W L W L W W</t>
-  </si>
-  <si>
-    <t>Altay,W L D L D L</t>
-  </si>
-  <si>
-    <t>Antalyaspor,W W W D W D</t>
-  </si>
-  <si>
-    <t>Besiktas,D D W L D D</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,L L W W D W</t>
-  </si>
-  <si>
-    <t>Fenerbahce,D W W W W D</t>
-  </si>
-  <si>
-    <t>Galatasaray,W W W W L W</t>
-  </si>
-  <si>
-    <t>Gaziantep,D W D D D W</t>
-  </si>
-  <si>
-    <t>Giresunspor,W W D D W D</t>
-  </si>
-  <si>
-    <t>Goztep,L L L L L L</t>
-  </si>
-  <si>
-    <t>Hatayspor,W D D L D W</t>
-  </si>
-  <si>
-    <t>Karagumruk,D W W W W L</t>
-  </si>
-  <si>
-    <t>Kasimpasa,L W W W L L</t>
-  </si>
-  <si>
-    <t>Kayserispor,L L L D L W</t>
-  </si>
-  <si>
-    <t>Konyaspor,D W W W L W</t>
-  </si>
-  <si>
-    <t>Rizespor,L L W W L L</t>
-  </si>
-  <si>
-    <t>Sivasspor,L W L W L W</t>
-  </si>
-  <si>
-    <t>Trabzonspor,W W D D D W</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,W L L L L L</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor,2 2 3 1 1 7,(16)</t>
-  </si>
-  <si>
-    <t>Alanyaspor,5 2 2 1 2 3,(15)</t>
-  </si>
-  <si>
-    <t>Altay,1 1 1 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Antalyaspor,1 4 4 1 3 1,(14)</t>
-  </si>
-  <si>
-    <t>Besiktas,2 1 4 0 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,1 0 1 3 0 3,(8)</t>
-  </si>
-  <si>
-    <t>Fenerbahce,1 2 2 2 3 0,(10)</t>
-  </si>
-  <si>
-    <t>Galatasaray,4 2 2 2 2 3,(15)</t>
-  </si>
-  <si>
-    <t>Gaziantep,2 3 0 1 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Giresunspor,3 2 2 0 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Goztep,2 2 0 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Hatayspor,3 0 1 0 1 4,(9)</t>
-  </si>
-  <si>
-    <t>Karagumruk,0 3 3 2 3 0,(11)</t>
-  </si>
-  <si>
-    <t>Kasimpasa,1 3 2 4 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Kayserispor,1 2 0 1 2 3,(9)</t>
-  </si>
-  <si>
-    <t>Konyaspor,4 2 3 4 1 3,(17)</t>
-  </si>
-  <si>
-    <t>Rizespor,0 1 3 2 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Sivasspor,2 2 0 1 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Trabzonspor,3 4 1 1 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,1 0 0 2 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor,3 1 1 3 2 0,(10)</t>
-  </si>
-  <si>
-    <t>Alanyaspor,1 5 1 3 1 0,(11)</t>
-  </si>
-  <si>
-    <t>Altay,0 2 1 1 1 4,(9)</t>
-  </si>
-  <si>
-    <t>Antalyaspor,0 1 1 1 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Besiktas,2 1 1 3 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,2 1 0 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Fenerbahce,1 1 0 0 2 0,(4)</t>
-  </si>
-  <si>
-    <t>Galatasaray,2 1 0 0 3 2,(8)</t>
-  </si>
-  <si>
-    <t>Gaziantep,2 1 0 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Giresunspor,1 1 2 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Goztep,3 3 2 2 7 2,(19)</t>
-  </si>
-  <si>
-    <t>Hatayspor,0 0 1 1 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Karagumruk,0 0 2 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Kasimpasa,2 1 1 0 3 4,(11)</t>
-  </si>
-  <si>
-    <t>Kayserispor,2 3 4 1 3 0,(13)</t>
-  </si>
-  <si>
-    <t>Konyaspor,4 0 0 1 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Rizespor,2 2 2 1 6 2,(15)</t>
-  </si>
-  <si>
-    <t>Sivasspor,3 1 2 0 3 1,(10)</t>
-  </si>
-  <si>
-    <t>Trabzonspor,2 2 1 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,0 2 1 3 3 5,(14)</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor,5 3 4 4 3 7,(26)</t>
-  </si>
-  <si>
-    <t>Alanyaspor,6 7 3 4 3 3,(26)</t>
-  </si>
-  <si>
-    <t>Altay,1 3 2 1 2 6,(15)</t>
-  </si>
-  <si>
-    <t>Antalyaspor,1 5 5 2 5 2,(20)</t>
-  </si>
-  <si>
-    <t>Besiktas,4 2 5 3 2 2,(18)</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,3 1 1 3 0 4,(12)</t>
-  </si>
-  <si>
-    <t>Fenerbahce,2 3 2 2 5 0,(14)</t>
-  </si>
-  <si>
-    <t>Galatasaray,6 3 2 2 5 5,(23)</t>
-  </si>
-  <si>
-    <t>Gaziantep,4 4 0 2 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Giresunspor,4 3 4 0 2 2,(15)</t>
-  </si>
-  <si>
-    <t>Goztep,5 5 2 3 8 2,(25)</t>
-  </si>
-  <si>
-    <t>Hatayspor,3 0 2 1 2 5,(13)</t>
-  </si>
-  <si>
-    <t>Karagumruk,0 3 5 3 4 1,(16)</t>
-  </si>
-  <si>
-    <t>Kasimpasa,3 4 3 4 5 6,(25)</t>
-  </si>
-  <si>
-    <t>Kayserispor,3 5 4 2 5 3,(22)</t>
-  </si>
-  <si>
-    <t>Konyaspor,8 2 3 5 3 4,(25)</t>
-  </si>
-  <si>
-    <t>Rizespor,2 3 5 3 6 3,(22)</t>
-  </si>
-  <si>
-    <t>Sivasspor,5 3 2 1 4 3,(18)</t>
-  </si>
-  <si>
-    <t>Trabzonspor,5 6 2 2 4 3,(22)</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,1 2 1 5 4 5,(18)</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor,2-3 2-1 3-1 1-3 1-2 7-0</t>
-  </si>
-  <si>
-    <t>Alanyaspor,5-1 2-5 2-1 1-3 2-1 3-0</t>
-  </si>
-  <si>
-    <t>Altay,1-0 1-2 1-1 0-1 1-1 2-4</t>
-  </si>
-  <si>
-    <t>Antalyaspor,1-0 4-1 4-1 1-1 3-2 1-1</t>
-  </si>
-  <si>
-    <t>Besiktas,2-2 1-1 4-1 0-3 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,1-2 0-1 1-0 3-0 0-0 3-1</t>
-  </si>
-  <si>
-    <t>Fenerbahce,1-1 2-1 2-0 2-0 3-2 0-0</t>
-  </si>
-  <si>
-    <t>Galatasaray,4-2 2-1 2-0 2-0 2-3 3-2</t>
-  </si>
-  <si>
-    <t>Gaziantep,2-2 3-1 0-0 1-1 1-1 2-0</t>
-  </si>
-  <si>
-    <t>Giresunspor,3-1 2-1 2-2 0-0 2-0 1-1</t>
-  </si>
-  <si>
-    <t>Goztep,2-3 2-3 0-2 1-2 1-7 0-2</t>
-  </si>
-  <si>
-    <t>Hatayspor,3-0 0-0 1-1 0-1 1-1 4-1</t>
-  </si>
-  <si>
-    <t>Karagumruk,0-0 3-0 3-2 2-1 3-1 0-1</t>
-  </si>
-  <si>
-    <t>Kasimpasa,1-2 3-1 2-1 4-0 2-3 2-4</t>
-  </si>
-  <si>
-    <t>Kayserispor,1-2 2-3 0-4 1-1 2-3 3-0</t>
-  </si>
-  <si>
-    <t>Konyaspor,4-4 2-0 3-0 4-1 1-2 3-1</t>
-  </si>
-  <si>
-    <t>Rizespor,0-2 1-2 3-2 2-1 0-6 1-2</t>
-  </si>
-  <si>
-    <t>Sivasspor,2-3 2-1 0-2 1-0 1-3 2-1</t>
-  </si>
-  <si>
-    <t>Trabzonspor,3-2 4-2 1-1 1-1 2-2 2-1</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,1-0 0-2 0-1 2-3 1-3 0-5</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor,-1 1 2 -2 -1 7,(6)</t>
-  </si>
-  <si>
-    <t>Alanyaspor,4 -3 1 -2 1 3,(4)</t>
-  </si>
-  <si>
-    <t>Altay,1 -1 0 -1 0 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Antalyaspor,1 3 3 0 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Besiktas,0 0 3 -3 0 0,(0)</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,-1 -1 1 3 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Fenerbahce,0 1 2 2 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Galatasaray,2 1 2 2 -1 1,(7)</t>
-  </si>
-  <si>
-    <t>Gaziantep,0 2 0 0 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Giresunspor,2 1 0 0 2 0,(5)</t>
-  </si>
-  <si>
-    <t>Goztep,-1 -1 -2 -1 -6 -2,(-13)</t>
-  </si>
-  <si>
-    <t>Hatayspor,3 0 0 -1 0 3,(5)</t>
-  </si>
-  <si>
-    <t>Karagumruk,0 3 1 1 2 -1,(6)</t>
-  </si>
-  <si>
-    <t>Kasimpasa,-1 2 1 4 -1 -2,(3)</t>
-  </si>
-  <si>
-    <t>Kayserispor,-1 -1 -4 0 -1 3,(-4)</t>
-  </si>
-  <si>
-    <t>Konyaspor,0 2 3 3 -1 2,(9)</t>
-  </si>
-  <si>
-    <t>Rizespor,-2 -1 1 1 -6 -1,(-8)</t>
-  </si>
-  <si>
-    <t>Sivasspor,-1 1 -2 1 -2 1,(-2)</t>
-  </si>
-  <si>
-    <t>Trabzonspor,1 2 0 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,1 -2 -1 -1 -2 -5,(-10)</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor,Sivasspor(10) Buyuksehyr(4) Altay(18) Trabzonspor(1) Alanyaspor(5) Goztep(19)</t>
-  </si>
-  <si>
-    <t>Alanyaspor,Konyaspor(3) Fenerbahce(2) Rizespor(17) Antalyaspor(6) Yeni Malatyaspor(20) Gaziantep(15)</t>
-  </si>
-  <si>
-    <t>Altay,Yeni Malatyaspor(20) Antalyaspor(6) Buyuksehyr(4) Galatasaray(13) Giresunspor(16) Kasimpasa(12)</t>
-  </si>
-  <si>
-    <t>Antalyaspor,Sivasspor(10) Giresunspor(16) Hatayspor(11) Kayserispor(14) Konyaspor(3) Galatasaray(13)</t>
-  </si>
-  <si>
-    <t>Besiktas,Buyuksehyr(4) Hatayspor(11) Alanyaspor(5) Kasimpasa(12) Fenerbahce(2) Konyaspor(3)</t>
-  </si>
-  <si>
-    <t>Buyuksehyr,Karagumruk(8) Antalyaspor(6) Yeni Malatyaspor(20) Hatayspor(11) Galatasaray(13) Trabzonspor(1)</t>
-  </si>
-  <si>
-    <t>Fenerbahce,Trabzonspor(1) Konyaspor(3) Galatasaray(13) Goztep(19) Gaziantep(15) Karagumruk(8)</t>
-  </si>
-  <si>
-    <t>Galatasaray,Rizespor(17) Besiktas(7) Karagumruk(8) Yeni Malatyaspor(20) Sivasspor(10) Ad. Demirspor(9)</t>
-  </si>
-  <si>
-    <t>Gaziantep,Hatayspor(11) Galatasaray(13) Trabzonspor(1) Goztep(19) Kayserispor(14) Rizespor(17)</t>
-  </si>
-  <si>
-    <t>Giresunspor,Goztep(19) Gaziantep(15) Sivasspor(10) Besiktas(7) Ad. Demirspor(9) Buyuksehyr(4)</t>
-  </si>
-  <si>
-    <t>Goztep,Galatasaray(13) Kasimpasa(12) Alanyaspor(5) Kayserispor(14) Rizespor(17) Besiktas(7)</t>
-  </si>
-  <si>
-    <t>Hatayspor,Karagumruk(8) Ad. Demirspor(9) Sivasspor(10) Altay(18) Trabzonspor(1) Giresunspor(16)</t>
-  </si>
-  <si>
-    <t>Karagumruk,Altay(18) Kayserispor(14) Kasimpasa(12) Giresunspor(16) Goztep(19) Alanyaspor(5)</t>
-  </si>
-  <si>
-    <t>Kasimpasa,Fenerbahce(2) Rizespor(17) Gaziantep(15) Ad. Demirspor(9) Buyuksehyr(4) Antalyaspor(6)</t>
-  </si>
-  <si>
-    <t>Kayserispor,Alanyaspor(5) Konyaspor(3) Fenerbahce(2) Rizespor(17) Besiktas(7) Yeni Malatyaspor(20)</t>
-  </si>
-  <si>
-    <t>Konyaspor,Kasimpasa(12) Galatasaray(13) Goztep(19) Gaziantep(15) Karagumruk(8) Hatayspor(11)</t>
-  </si>
-  <si>
-    <t>Rizespor,Buyuksehyr(4) Giresunspor(16) Trabzonspor(1) Konyaspor(3) Fenerbahce(2) Sivasspor(10)</t>
-  </si>
-  <si>
-    <t>Sivasspor,Besiktas(7) Altay(18) Buyuksehyr(4) Alanyaspor(5) Kasimpasa(12) Kayserispor(14)</t>
-  </si>
-  <si>
-    <t>Trabzonspor,Kayserispor(14) Goztep(19) Besiktas(7) Karagumruk(8) Antalyaspor(6) Altay(18)</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor,Ad. Demirspor(9) Kasimpasa(12) Giresunspor(16) Konyaspor(3) Rizespor(17) Fenerbahce(2)</t>
   </si>
 </sst>
 </file>
@@ -5105,563 +4663,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G2" t="s">
-        <v>537</v>
-      </c>
-      <c r="H2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F4" t="s">
-        <v>519</v>
-      </c>
-      <c r="G4" t="s">
-        <v>539</v>
-      </c>
-      <c r="H4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E5" t="s">
-        <v>500</v>
-      </c>
-      <c r="F5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G5" t="s">
-        <v>540</v>
-      </c>
-      <c r="H5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F6" t="s">
-        <v>521</v>
-      </c>
-      <c r="G6" t="s">
-        <v>541</v>
-      </c>
-      <c r="H6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E7" t="s">
-        <v>502</v>
-      </c>
-      <c r="F7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G7" t="s">
-        <v>542</v>
-      </c>
-      <c r="H7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E8" t="s">
-        <v>503</v>
-      </c>
-      <c r="F8" t="s">
-        <v>523</v>
-      </c>
-      <c r="G8" t="s">
-        <v>543</v>
-      </c>
-      <c r="H8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D9" t="s">
-        <v>484</v>
-      </c>
-      <c r="E9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F9" t="s">
-        <v>524</v>
-      </c>
-      <c r="G9" t="s">
-        <v>544</v>
-      </c>
-      <c r="H9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D10" t="s">
-        <v>485</v>
-      </c>
-      <c r="E10" t="s">
-        <v>505</v>
-      </c>
-      <c r="F10" t="s">
-        <v>525</v>
-      </c>
-      <c r="G10" t="s">
-        <v>545</v>
-      </c>
-      <c r="H10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" t="s">
-        <v>486</v>
-      </c>
-      <c r="E11" t="s">
-        <v>506</v>
-      </c>
-      <c r="F11" t="s">
-        <v>526</v>
-      </c>
-      <c r="G11" t="s">
-        <v>546</v>
-      </c>
-      <c r="H11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" t="s">
-        <v>487</v>
-      </c>
-      <c r="E12" t="s">
-        <v>507</v>
-      </c>
-      <c r="F12" t="s">
-        <v>527</v>
-      </c>
-      <c r="G12" t="s">
-        <v>547</v>
-      </c>
-      <c r="H12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" t="s">
-        <v>488</v>
-      </c>
-      <c r="E13" t="s">
-        <v>508</v>
-      </c>
-      <c r="F13" t="s">
-        <v>528</v>
-      </c>
-      <c r="G13" t="s">
-        <v>548</v>
-      </c>
-      <c r="H13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>449</v>
-      </c>
-      <c r="C14" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" t="s">
-        <v>489</v>
-      </c>
-      <c r="E14" t="s">
-        <v>509</v>
-      </c>
-      <c r="F14" t="s">
-        <v>529</v>
-      </c>
-      <c r="G14" t="s">
-        <v>549</v>
-      </c>
-      <c r="H14" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15" t="s">
-        <v>510</v>
-      </c>
-      <c r="F15" t="s">
-        <v>530</v>
-      </c>
-      <c r="G15" t="s">
-        <v>550</v>
-      </c>
-      <c r="H15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D16" t="s">
-        <v>491</v>
-      </c>
-      <c r="E16" t="s">
-        <v>511</v>
-      </c>
-      <c r="F16" t="s">
-        <v>531</v>
-      </c>
-      <c r="G16" t="s">
-        <v>551</v>
-      </c>
-      <c r="H16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D17" t="s">
-        <v>492</v>
-      </c>
-      <c r="E17" t="s">
-        <v>512</v>
-      </c>
-      <c r="F17" t="s">
-        <v>532</v>
-      </c>
-      <c r="G17" t="s">
-        <v>552</v>
-      </c>
-      <c r="H17" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" t="s">
-        <v>473</v>
-      </c>
-      <c r="D18" t="s">
-        <v>493</v>
-      </c>
-      <c r="E18" t="s">
-        <v>513</v>
-      </c>
-      <c r="F18" t="s">
-        <v>533</v>
-      </c>
-      <c r="G18" t="s">
-        <v>553</v>
-      </c>
-      <c r="H18" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C19" t="s">
-        <v>474</v>
-      </c>
-      <c r="D19" t="s">
-        <v>494</v>
-      </c>
-      <c r="E19" t="s">
-        <v>514</v>
-      </c>
-      <c r="F19" t="s">
-        <v>534</v>
-      </c>
-      <c r="G19" t="s">
-        <v>554</v>
-      </c>
-      <c r="H19" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C20" t="s">
-        <v>475</v>
-      </c>
-      <c r="D20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E20" t="s">
-        <v>515</v>
-      </c>
-      <c r="F20" t="s">
-        <v>535</v>
-      </c>
-      <c r="G20" t="s">
-        <v>555</v>
-      </c>
-      <c r="H20" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>456</v>
-      </c>
-      <c r="C21" t="s">
-        <v>476</v>
-      </c>
-      <c r="D21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E21" t="s">
-        <v>516</v>
-      </c>
-      <c r="F21" t="s">
-        <v>536</v>
-      </c>
-      <c r="G21" t="s">
-        <v>556</v>
-      </c>
-      <c r="H21" t="s">
-        <v>576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
